--- a/DOCUMENTS/UC2-Configurator/UC2_ReadyToUse_Boxes_Modules_Parts.xlsx
+++ b/DOCUMENTS/UC2-Configurator/UC2_ReadyToUse_Boxes_Modules_Parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bene/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bene/Dropbox/Dokumente/Promotion/PROJECTS/UC2-GIT/DOCUMENTS/UC2-Configurator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B046E58-CF37-6747-A8F5-122883B52DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F465551-CFF3-F84B-9BA2-C39E3E5A2CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="634">
   <si>
     <t>BOXes</t>
   </si>
@@ -51,39 +51,6 @@
   </si>
   <si>
     <t>FullBOX</t>
-  </si>
-  <si>
-    <t>Abbe Setup</t>
-  </si>
-  <si>
-    <t>Double-slit E.</t>
-  </si>
-  <si>
-    <t>Inline Holography</t>
-  </si>
-  <si>
-    <t>Incubator M.</t>
-  </si>
-  <si>
-    <t>Light sheet M.</t>
-  </si>
-  <si>
-    <t>Mach-Zehnder I.</t>
-  </si>
-  <si>
-    <t>Michelson I.</t>
-  </si>
-  <si>
-    <t>S. Projector</t>
-  </si>
-  <si>
-    <t>S. Smartphone M.</t>
-  </si>
-  <si>
-    <t>S. Telescope</t>
-  </si>
-  <si>
-    <t>Smartphone M.</t>
   </si>
   <si>
     <t>Spectrometer</t>
@@ -254,13 +221,7 @@
     <t>Price per amount</t>
   </si>
   <si>
-    <t>ASSEMBLY_Baseplate 4×1</t>
-  </si>
-  <si>
     <t>https://github.com/bionanoimaging/UC2-GIT/tree/master/CAD/ASSEMBLY_Baseplate_v2</t>
-  </si>
-  <si>
-    <t>Baseplate 4×1</t>
   </si>
   <si>
     <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_Baseplate_v2/STL/Assembly_base_4x1.stl</t>
@@ -272,25 +233,10 @@
     <t>https://www.magnetmax.de/Neodym-Kugelmagnete/Magnetkugel-Kugelmagnet-O-5-0-mm-Neodym-vernickelt-N40-haelt-400-g::158.html</t>
   </si>
   <si>
-    <t>ASSEMBLY_Baseplate 4×2</t>
-  </si>
-  <si>
-    <t>Baseplate 4×2</t>
-  </si>
-  <si>
     <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_Baseplate_v2/STL/Assembly_base_4x2.stl</t>
   </si>
   <si>
-    <t>ASSEMBLY_Baseplate 4×4</t>
-  </si>
-  <si>
-    <t>Baseplate 4×4</t>
-  </si>
-  <si>
     <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_Baseplate_v2/STL/Assembly_base_4x4.stl</t>
-  </si>
-  <si>
-    <t>ASSEMBLY_CUBE_empty_1×1</t>
   </si>
   <si>
     <t>https://github.com/bionanoimaging/UC2-GIT/tree/master/CAD/ASSEMBLY_CUBE_Base_v2</t>
@@ -308,13 +254,7 @@
     <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Base_v2/STL/10_Lid_1x1_v2.stl</t>
   </si>
   <si>
-    <t>Screws M3×12</t>
-  </si>
-  <si>
     <t>https://eshop.wuerth.de/Zylinderschraube-mit-Innensechskant-SHR-ZYL-ISO4762-88-IS25-A2K-M3X12/00843%20%2012.sku/de/DE/EUR/</t>
-  </si>
-  <si>
-    <t>Screws M3×8 (optional)</t>
   </si>
   <si>
     <t>https://eshop.wuerth.de/Zylinderschraube-mit-Innensechskant-SHR-ZYL-ISO4762-88-IS25-A2K-M3X8/00843%20%208.sku/de/DE/EUR/</t>
@@ -398,9 +338,6 @@
     <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Eyepiece_v2/STL/30_Smartphone_Holder.stl</t>
   </si>
   <si>
-    <t>Eyepiece 20×</t>
-  </si>
-  <si>
     <t>https://de.aliexpress.com/item/32965050204.html?spm=a2g0o.productlist.0.0.7aa657eeefLUfu&amp;algo_pvid=cd60fca0-3fa5-4191-9ce9-303815e2afa7&amp;algo_expid=cd60fca0-3fa5-4191-9ce9-303815e2afa7-1&amp;btsid=76036b58-6717-4d1f-a4a0-c3d4bacd0450&amp;ws_ab_test=searchweb0_0,searchweb201602_2,searchweb201603_52</t>
   </si>
   <si>
@@ -419,16 +356,10 @@
     <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_LED_Matrix_v2/STL/30_Cube_LED_Array_v0.stl</t>
   </si>
   <si>
-    <t xml:space="preserve">The 8×8 LED matrix serves as a light source for trasmission microscopy. </t>
-  </si>
-  <si>
     <t>M2 screw + nut</t>
   </si>
   <si>
     <t>https://www.amazon.de/Edelstahl-Sechskopf-Knopf-Schrauben-Unterlegscheiben-Sortiment-Aufbewahrung/dp/B073SS7D8J/ref=sr_1_fkmr0_1?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=zylinderkopfschrauben+set+galvanisiert&amp;qid=1565007371&amp;s=diy&amp;sr=1-1-fkmr0</t>
-  </si>
-  <si>
-    <t>LED Matrix 8×8</t>
   </si>
   <si>
     <t>https://www.amazon.de/AZDelivery-Matrix-CJMCU-8-Arduino-Raspberry/dp/B078HYP681/ref=sr_1_2?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=neopixel+matrix&amp;qid=1565008576&amp;s=gateway&amp;sr=8-2</t>
@@ -527,9 +458,6 @@
     <t>https://www.laserlands.net/11040037.html</t>
   </si>
   <si>
-    <t>Screws M3×18</t>
-  </si>
-  <si>
     <t>https://eshop.wuerth.de/Zylinderschraube-mit-Innensechskant-SHR-ZYL-ISO4762-88-IS25-A2K-M3X18/00843%20%2018.sku/de/DE/EUR/</t>
   </si>
   <si>
@@ -596,16 +524,10 @@
     <t>https://www.thorlabs.com/thorproduct.cfm?partnumber=LC1259</t>
   </si>
   <si>
-    <t>ASSEMBLY_CUBE_Lens (4×)</t>
-  </si>
-  <si>
     <t>20_Cube_Insert_Objective_Holder</t>
   </si>
   <si>
     <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Lens_v2/STL/20_Cube_Insert_Objective_Holder.stl</t>
-  </si>
-  <si>
-    <t>Microscope Objective 4×</t>
   </si>
   <si>
     <t>https://de.aliexpress.com/item/32947647522.html?spm=a2g0x.search0104.3.54.6cf57a4c3DwsTO&amp;transAbTest=ae803_3&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_6_10065_10130_10068_10890_10547_319_10546_317_10548_10545_10696_10084_453_454_10083_10618_10307_537_536_10902_10059_10884_10887_321_322_10103%2Csearchweb201603_6%2CppcSwitch_0&amp;algo_pvid=06d972be-b176-4446-8665-56d9e61a8d2c&amp;algo_expid=06d972be-b176-4446-8665-56d9e61a8d2c-7</t>
@@ -635,9 +557,6 @@
     <t xml:space="preserve">The mirror is mounted diagonally and flips the incomong light by 90°. </t>
   </si>
   <si>
-    <t>30×30 mm² Mirror</t>
-  </si>
-  <si>
     <t>https://www.rayher.com/de/spiegelmosaik-selbstklebend-14548606</t>
   </si>
   <si>
@@ -654,9 +573,6 @@
   </si>
   <si>
     <t xml:space="preserve">The three-point kinematic mirror mount allows for careful alignment of the outcoming beam. </t>
-  </si>
-  <si>
-    <t>Metal plate 30×40 mm², custom cut</t>
   </si>
   <si>
     <t>https://www.amazon.de/Rayher-14548606-Spiegelmosaik-selbstklebend-SB-Btl/dp/B008KJ8438/ref=pd_bxgy_201_img_3/258-8761405-4543762?_encoding=UTF8&amp;pd_rd_i=B008KJ8438&amp;pd_rd_r=80fd534c-997b-4a19-b91a-9bf38dbf4ade&amp;pd_rd_w=4DEXV&amp;pd_rd_wg=7SLRE&amp;pf_rd_p=98c98f04-e797-4e4b-a352-48f7266a41af&amp;pf_rd_r=N95R9S45MNSYNQX2BAJE&amp;psc=1&amp;refRID=N95R9S45MNSYNQX2BAJE</t>
@@ -729,9 +645,6 @@
   </si>
   <si>
     <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_S-STAGE_v2/STL/30_Coupling_Screw_28BYJ_M3.stl</t>
-  </si>
-  <si>
-    <t>M3×25 screw with nut (non-magnetic)</t>
   </si>
   <si>
     <t>30_Syringe_holder</t>
@@ -831,15 +744,6 @@
   </si>
   <si>
     <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_v2/STL/40_XY_Stage_Clamp_Slide_9.stl</t>
-  </si>
-  <si>
-    <t>Microscope Objective 10×</t>
-  </si>
-  <si>
-    <t>Screws M3×8</t>
-  </si>
-  <si>
-    <t>M3×30 screw with nut (non-magnetic)</t>
   </si>
   <si>
     <t>ASSEMBLY_CUBE_Z-stage_mechanical</t>
@@ -1960,6 +1864,105 @@
   <si>
     <t xml:space="preserve">Batteries for laser pointer </t>
   </si>
+  <si>
+    <t>APP_Abbe_Setup</t>
+  </si>
+  <si>
+    <t>APP_Double-slit_Experiment</t>
+  </si>
+  <si>
+    <t>APP_INLINE_HOLOGRAM</t>
+  </si>
+  <si>
+    <t>APP_Incubator_Microscope</t>
+  </si>
+  <si>
+    <t>APP_Incubator_Microscope_fluorescence</t>
+  </si>
+  <si>
+    <t>APP_Mach-Zehnder_Interferometer</t>
+  </si>
+  <si>
+    <t>APP_Michelson_Interferometer</t>
+  </si>
+  <si>
+    <t>APP_SIMPLE-Projector</t>
+  </si>
+  <si>
+    <t>APP_SIMPLE-Smartphone_Microscope</t>
+  </si>
+  <si>
+    <t>APP_SIMPLE-Telescope</t>
+  </si>
+  <si>
+    <t>APP_SMARTPHONE_MICROSCOPE</t>
+  </si>
+  <si>
+    <t>APP_Spectrometer</t>
+  </si>
+  <si>
+    <t>Baseplate 4x1</t>
+  </si>
+  <si>
+    <t>ASSEMBLY_Baseplate 4x2</t>
+  </si>
+  <si>
+    <t>Baseplate 4x2</t>
+  </si>
+  <si>
+    <t>ASSEMBLY_Baseplate 4x4</t>
+  </si>
+  <si>
+    <t>Baseplate 4x4</t>
+  </si>
+  <si>
+    <t>ASSEMBLY_CUBE_empty_1x1</t>
+  </si>
+  <si>
+    <t>Screws M3x12</t>
+  </si>
+  <si>
+    <t>Screws M3x8 (optional)</t>
+  </si>
+  <si>
+    <t>Eyepiece 20x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 8x8 LED matrix serves as a light source for trasmission microscopy. </t>
+  </si>
+  <si>
+    <t>LED Matrix 8x8</t>
+  </si>
+  <si>
+    <t>Screws M3x18</t>
+  </si>
+  <si>
+    <t>ASSEMBLY_CUBE_Lens (4x)</t>
+  </si>
+  <si>
+    <t>Microscope Objective 4x</t>
+  </si>
+  <si>
+    <t>30x30 mm² Mirror</t>
+  </si>
+  <si>
+    <t>Metal plate 30x40 mm², custom cut</t>
+  </si>
+  <si>
+    <t>M3x25 screw with nut (non-magnetic)</t>
+  </si>
+  <si>
+    <t>Microscope Objective 10x</t>
+  </si>
+  <si>
+    <t>Screws M3x8</t>
+  </si>
+  <si>
+    <t>M3x30 screw with nut (non-magnetic)</t>
+  </si>
+  <si>
+    <t>ASSEMBLY_Baseplate 4x11</t>
+  </si>
 </sst>
 </file>
 
@@ -1970,7 +1973,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot;€&quot;"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="56">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2278,6 +2281,18 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2682,10 +2697,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2993,6 +3009,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3000,7 +3018,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3320,10 +3339,10 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B172" sqref="B172"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -3336,7 +3355,7 @@
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16">
+    <row r="1" spans="1:27" ht="17" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3344,32 +3363,32 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="191" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="192"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="194" t="s">
+      <c r="H1" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="194"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="192"/>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="193"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="195"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="36" customHeight="1">
+    <row r="2" spans="1:27" ht="36" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -3388,41 +3407,41 @@
       <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>17</v>
+      <c r="K2" s="191" t="s">
+        <v>601</v>
+      </c>
+      <c r="L2" s="191" t="s">
+        <v>602</v>
+      </c>
+      <c r="M2" s="192" t="s">
+        <v>603</v>
+      </c>
+      <c r="N2" s="192" t="s">
+        <v>604</v>
+      </c>
+      <c r="O2" s="191" t="s">
+        <v>605</v>
+      </c>
+      <c r="P2" s="191" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q2" s="191" t="s">
+        <v>607</v>
+      </c>
+      <c r="R2" s="191" t="s">
+        <v>608</v>
+      </c>
+      <c r="S2" s="191" t="s">
+        <v>609</v>
+      </c>
+      <c r="T2" s="191" t="s">
+        <v>610</v>
+      </c>
+      <c r="U2" s="191" t="s">
+        <v>611</v>
+      </c>
+      <c r="V2" s="191" t="s">
+        <v>612</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -3430,10 +3449,10 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="16">
+    <row r="3" spans="1:27" ht="17" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3441,49 +3460,49 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -3494,7 +3513,7 @@
     <row r="4" spans="1:27" ht="16">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3502,49 +3521,49 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -3555,7 +3574,7 @@
     <row r="5" spans="1:27" ht="16">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3563,49 +3582,49 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -3613,27 +3632,27 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="16">
+    <row r="6" spans="1:27" ht="17" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" ref="H6:V6" si="0">$G7*H7+$G10*H10+$G13*H13+$G16*H16+$G21*H21+$G27*H27+$G31*H31+$G36*H36+$G45*H45+$G55*H55+$G61*H61+$G65*H65+$G70*H70+$G75*H75+$G80*H80+$G84*H84+$G89*H89+$G93*H93+$G100*H100+$G107*H107+$G113*H113+$G125*H125+$G129*H129+$G133*H133+$G151*H151+$G165*H165+$G171*H171+$G180*H180+$G181*H181</f>
@@ -3706,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>73</v>
+        <v>633</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -3770,10 +3789,10 @@
     <row r="8" spans="1:27" ht="16">
       <c r="A8" s="23"/>
       <c r="B8" s="24" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>75</v>
+        <v>613</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -3782,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G8" s="28">
         <v>0.7</v>
@@ -3815,7 +3834,7 @@
         <v>8.2199999999999989</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D9" s="37">
         <v>0</v>
@@ -3824,7 +3843,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G9" s="39">
         <v>0.47</v>
@@ -3855,7 +3874,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>79</v>
+        <v>614</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -3919,10 +3938,10 @@
     <row r="11" spans="1:27" ht="16">
       <c r="A11" s="48"/>
       <c r="B11" s="49" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="D11" s="26">
         <v>1</v>
@@ -3931,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G11" s="28">
         <v>1.3</v>
@@ -3964,7 +3983,7 @@
         <v>16.34</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D12" s="37">
         <v>0</v>
@@ -3973,7 +3992,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G12" s="39">
         <v>0.47</v>
@@ -4004,7 +4023,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>82</v>
+        <v>616</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -4068,10 +4087,10 @@
     <row r="14" spans="1:27" ht="16">
       <c r="A14" s="48"/>
       <c r="B14" s="49" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>83</v>
+        <v>617</v>
       </c>
       <c r="D14" s="26">
         <v>1</v>
@@ -4080,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G14" s="28">
         <v>2.6</v>
@@ -4113,7 +4132,7 @@
         <v>32.68</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D15" s="37">
         <v>0</v>
@@ -4122,7 +4141,7 @@
         <v>64</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G15" s="39">
         <v>0.47</v>
@@ -4153,7 +4172,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4217,10 +4236,10 @@
     <row r="17" spans="1:27" ht="16">
       <c r="A17" s="48"/>
       <c r="B17" s="49" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D17" s="50">
         <v>1</v>
@@ -4229,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G17" s="51">
         <v>0.4</v>
@@ -4262,7 +4281,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D18" s="50">
         <v>1</v>
@@ -4271,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G18" s="51">
         <v>0.2</v>
@@ -4301,7 +4320,7 @@
       <c r="A19" s="54"/>
       <c r="B19" s="55"/>
       <c r="C19" s="25" t="s">
-        <v>91</v>
+        <v>619</v>
       </c>
       <c r="D19" s="50">
         <v>0</v>
@@ -4310,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G19" s="51">
         <v>0.2</v>
@@ -4340,7 +4359,7 @@
       <c r="A20" s="54"/>
       <c r="B20" s="57"/>
       <c r="C20" s="58" t="s">
-        <v>93</v>
+        <v>620</v>
       </c>
       <c r="D20" s="59">
         <v>0</v>
@@ -4349,7 +4368,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G20" s="61">
         <v>0.2</v>
@@ -4380,7 +4399,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -4444,17 +4463,17 @@
     <row r="22" spans="1:27" ht="16">
       <c r="A22" s="48"/>
       <c r="B22" s="49" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D22" s="50"/>
       <c r="E22" s="50">
         <v>1</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G22" s="51">
         <f>$G$16</f>
@@ -4488,7 +4507,7 @@
         <v>12.1</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D23" s="50">
         <v>1</v>
@@ -4497,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G23" s="51">
         <v>0.3</v>
@@ -4526,10 +4545,10 @@
     <row r="24" spans="1:27" ht="16">
       <c r="A24" s="5"/>
       <c r="B24" s="63" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D24" s="50">
         <v>1</v>
@@ -4538,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G24" s="51">
         <v>0</v>
@@ -4568,7 +4587,7 @@
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="25" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D25" s="50">
         <v>0</v>
@@ -4577,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G25" s="51">
         <v>4.5999999999999996</v>
@@ -4607,7 +4626,7 @@
       <c r="A26" s="54"/>
       <c r="B26" s="57"/>
       <c r="C26" s="64" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D26" s="65">
         <v>0</v>
@@ -4616,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="66" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G26" s="67">
         <v>5</v>
@@ -4647,7 +4666,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -4711,17 +4730,17 @@
     <row r="28" spans="1:27" ht="16">
       <c r="A28" s="48"/>
       <c r="B28" s="49" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="50">
         <v>1</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G28" s="51">
         <f>$G$16</f>
@@ -4755,7 +4774,7 @@
         <v>29.2</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D29" s="50">
         <v>1</v>
@@ -4764,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G29" s="51">
         <v>0.3</v>
@@ -4793,10 +4812,10 @@
     <row r="30" spans="1:27" ht="16">
       <c r="A30" s="5"/>
       <c r="B30" s="68" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D30" s="65">
         <v>0</v>
@@ -4805,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="66" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G30" s="67">
         <v>26.7</v>
@@ -4836,7 +4855,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -4900,17 +4919,17 @@
     <row r="32" spans="1:27" ht="16">
       <c r="A32" s="48"/>
       <c r="B32" s="49" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="50">
         <v>1</v>
       </c>
       <c r="F32" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G32" s="51">
         <f>$G$16</f>
@@ -4944,7 +4963,7 @@
         <v>16.11</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D33" s="50">
         <v>1</v>
@@ -4953,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G33" s="51">
         <v>0.2</v>
@@ -4982,10 +5001,10 @@
     <row r="34" spans="1:27" ht="16">
       <c r="A34" s="5"/>
       <c r="B34" s="63" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D34" s="50">
         <v>1</v>
@@ -4994,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G34" s="51">
         <v>0.6</v>
@@ -5024,7 +5043,7 @@
       <c r="A35" s="54"/>
       <c r="B35" s="57"/>
       <c r="C35" s="64" t="s">
-        <v>121</v>
+        <v>621</v>
       </c>
       <c r="D35" s="65">
         <v>0</v>
@@ -5033,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="66" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="G35" s="67">
         <v>13.11</v>
@@ -5064,7 +5083,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -5126,10 +5145,10 @@
     <row r="37" spans="1:27" ht="16">
       <c r="A37" s="48"/>
       <c r="B37" s="49" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D37" s="50">
         <v>1</v>
@@ -5138,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G37" s="51">
         <v>0.2</v>
@@ -5171,7 +5190,7 @@
         <v>23.69</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D38" s="50">
         <v>1</v>
@@ -5180,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G38" s="51">
         <v>0.2</v>
@@ -5209,10 +5228,10 @@
     <row r="39" spans="1:27" ht="16">
       <c r="A39" s="5"/>
       <c r="B39" s="63" t="s">
-        <v>128</v>
+        <v>622</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>91</v>
+        <v>619</v>
       </c>
       <c r="D39" s="50">
         <v>0</v>
@@ -5221,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="56" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G39" s="51">
         <v>0.2</v>
@@ -5251,7 +5270,7 @@
       <c r="A40" s="54"/>
       <c r="B40" s="55"/>
       <c r="C40" s="25" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D40" s="50">
         <v>0</v>
@@ -5260,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="G40" s="51">
         <v>0.1</v>
@@ -5290,7 +5309,7 @@
       <c r="A41" s="54"/>
       <c r="B41" s="55"/>
       <c r="C41" s="25" t="s">
-        <v>131</v>
+        <v>623</v>
       </c>
       <c r="D41" s="50">
         <v>0</v>
@@ -5299,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="56" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G41" s="51">
         <v>9.99</v>
@@ -5329,7 +5348,7 @@
       <c r="A42" s="54"/>
       <c r="B42" s="55"/>
       <c r="C42" s="25" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D42" s="50">
         <v>0</v>
@@ -5338,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="56" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="G42" s="51">
         <v>8</v>
@@ -5368,7 +5387,7 @@
       <c r="A43" s="54"/>
       <c r="B43" s="55"/>
       <c r="C43" s="25" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D43" s="50">
         <v>0</v>
@@ -5377,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G43" s="51">
         <v>0.5</v>
@@ -5407,7 +5426,7 @@
       <c r="A44" s="54"/>
       <c r="B44" s="57"/>
       <c r="C44" s="64" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D44" s="65">
         <v>0</v>
@@ -5416,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="66" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="G44" s="67">
         <v>2.8</v>
@@ -5447,7 +5466,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -5511,17 +5530,17 @@
     <row r="46" spans="1:27" ht="16">
       <c r="A46" s="48"/>
       <c r="B46" s="49" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D46" s="50"/>
       <c r="E46" s="50">
         <v>1</v>
       </c>
       <c r="F46" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G46" s="51">
         <f>$G$16</f>
@@ -5555,7 +5574,7 @@
         <v>7.2499999999999991</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D47" s="50">
         <v>1</v>
@@ -5564,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G47" s="51">
         <v>0.2</v>
@@ -5593,10 +5612,10 @@
     <row r="48" spans="1:27" ht="16">
       <c r="A48" s="5"/>
       <c r="B48" s="63" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D48" s="72">
         <v>1</v>
@@ -5605,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="73" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G48" s="74">
         <v>0.3</v>
@@ -5635,7 +5654,7 @@
       <c r="A49" s="54"/>
       <c r="B49" s="55"/>
       <c r="C49" s="71" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D49" s="72">
         <v>1</v>
@@ -5644,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="73" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="G49" s="74">
         <v>0</v>
@@ -5674,7 +5693,7 @@
       <c r="A50" s="54"/>
       <c r="B50" s="55"/>
       <c r="C50" s="25" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D50" s="50">
         <v>0</v>
@@ -5683,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="56" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="G50" s="51">
         <v>1.85</v>
@@ -5713,7 +5732,7 @@
       <c r="A51" s="54"/>
       <c r="B51" s="55"/>
       <c r="C51" s="25" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D51" s="50">
         <v>0</v>
@@ -5722,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="56" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="G51" s="51">
         <v>0.1</v>
@@ -5752,7 +5771,7 @@
       <c r="A52" s="54"/>
       <c r="B52" s="55"/>
       <c r="C52" s="25" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D52" s="50">
         <v>0</v>
@@ -5789,7 +5808,7 @@
       <c r="A53" s="54"/>
       <c r="B53" s="55"/>
       <c r="C53" s="25" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D53" s="50">
         <v>0</v>
@@ -5798,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="56" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="G53" s="51">
         <v>2.8</v>
@@ -5828,7 +5847,7 @@
       <c r="A54" s="54"/>
       <c r="B54" s="57"/>
       <c r="C54" s="64" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D54" s="65">
         <v>0</v>
@@ -5837,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="66" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="G54" s="67">
         <v>0.1</v>
@@ -5868,7 +5887,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -5932,17 +5951,17 @@
     <row r="56" spans="1:27" ht="16">
       <c r="A56" s="48"/>
       <c r="B56" s="49" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D56" s="50"/>
       <c r="E56" s="50">
         <v>1</v>
       </c>
       <c r="F56" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G56" s="51">
         <f>$G$16</f>
@@ -5976,7 +5995,7 @@
         <v>18.400000000000002</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D57" s="50">
         <v>1</v>
@@ -5985,7 +6004,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G57" s="51">
         <v>0.3</v>
@@ -6014,10 +6033,10 @@
     <row r="58" spans="1:27" ht="16">
       <c r="A58" s="5"/>
       <c r="B58" s="63" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D58" s="50">
         <v>1</v>
@@ -6026,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="G58" s="51">
         <v>0</v>
@@ -6056,7 +6075,7 @@
       <c r="A59" s="54"/>
       <c r="B59" s="55"/>
       <c r="C59" s="25" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D59" s="50">
         <v>0</v>
@@ -6065,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="56" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="G59" s="51">
         <v>14.8</v>
@@ -6095,7 +6114,7 @@
       <c r="A60" s="54"/>
       <c r="B60" s="57"/>
       <c r="C60" s="64" t="s">
-        <v>164</v>
+        <v>624</v>
       </c>
       <c r="D60" s="65">
         <v>0</v>
@@ -6104,7 +6123,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="66" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="G60" s="67">
         <v>0.2</v>
@@ -6135,7 +6154,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -6199,17 +6218,17 @@
     <row r="62" spans="1:27" ht="16">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D62" s="50"/>
       <c r="E62" s="50">
         <v>1</v>
       </c>
       <c r="F62" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G62" s="51">
         <f>$G$16</f>
@@ -6243,7 +6262,7 @@
         <v>62.4</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D63" s="50">
         <v>1</v>
@@ -6252,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="G63" s="51">
         <v>0.2</v>
@@ -6281,10 +6300,10 @@
     <row r="64" spans="1:27" ht="16">
       <c r="A64" s="5"/>
       <c r="B64" s="68" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C64" s="64" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D64" s="65">
         <v>0</v>
@@ -6293,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="66" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G64" s="67">
         <v>60</v>
@@ -6324,7 +6343,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -6388,17 +6407,17 @@
     <row r="66" spans="1:27" ht="16">
       <c r="A66" s="48"/>
       <c r="B66" s="49" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D66" s="50"/>
       <c r="E66" s="50">
         <v>1</v>
       </c>
       <c r="F66" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G66" s="51">
         <f>$G$16</f>
@@ -6432,7 +6451,7 @@
         <v>8.5</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D67" s="50">
         <v>1</v>
@@ -6441,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G67" s="51">
         <v>0.3</v>
@@ -6470,10 +6489,10 @@
     <row r="68" spans="1:27" ht="16">
       <c r="A68" s="5"/>
       <c r="B68" s="63" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D68" s="50">
         <v>1</v>
@@ -6482,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="G68" s="51">
         <v>0</v>
@@ -6512,7 +6531,7 @@
       <c r="A69" s="54"/>
       <c r="B69" s="57"/>
       <c r="C69" s="64" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D69" s="65">
         <v>0</v>
@@ -6521,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="66" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G69" s="67">
         <v>6</v>
@@ -6552,7 +6571,7 @@
         <v>13</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -6616,17 +6635,17 @@
     <row r="71" spans="1:27" ht="16">
       <c r="A71" s="48"/>
       <c r="B71" s="49" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D71" s="50"/>
       <c r="E71" s="50">
         <v>1</v>
       </c>
       <c r="F71" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G71" s="51">
         <f>$G$16</f>
@@ -6660,7 +6679,7 @@
         <v>8.5</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D72" s="50">
         <v>1</v>
@@ -6669,7 +6688,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G72" s="51">
         <v>0.3</v>
@@ -6698,10 +6717,10 @@
     <row r="73" spans="1:27" ht="16">
       <c r="A73" s="5"/>
       <c r="B73" s="63" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D73" s="50">
         <v>1</v>
@@ -6710,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="G73" s="51">
         <v>0</v>
@@ -6740,7 +6759,7 @@
       <c r="A74" s="54"/>
       <c r="B74" s="57"/>
       <c r="C74" s="64" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D74" s="65">
         <v>0</v>
@@ -6749,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="66" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G74" s="67">
         <v>6</v>
@@ -6780,7 +6799,7 @@
         <v>14</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -6844,17 +6863,17 @@
     <row r="76" spans="1:27" ht="16">
       <c r="A76" s="48"/>
       <c r="B76" s="49" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D76" s="50"/>
       <c r="E76" s="50">
         <v>1</v>
       </c>
       <c r="F76" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G76" s="51">
         <f>$G$16</f>
@@ -6888,7 +6907,7 @@
         <v>21.5</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D77" s="50">
         <v>1</v>
@@ -6897,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G77" s="51">
         <v>0.3</v>
@@ -6926,10 +6945,10 @@
     <row r="78" spans="1:27" ht="16">
       <c r="A78" s="5"/>
       <c r="B78" s="63" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D78" s="50">
         <v>1</v>
@@ -6938,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G78" s="51">
         <v>0</v>
@@ -6968,7 +6987,7 @@
       <c r="A79" s="54"/>
       <c r="B79" s="57"/>
       <c r="C79" s="64" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D79" s="65">
         <v>0</v>
@@ -6977,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="66" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="G79" s="67">
         <v>19</v>
@@ -7008,7 +7027,7 @@
         <v>15</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>187</v>
+        <v>625</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -7072,17 +7091,17 @@
     <row r="81" spans="1:27" ht="16">
       <c r="A81" s="48"/>
       <c r="B81" s="49" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D81" s="50"/>
       <c r="E81" s="50">
         <v>1</v>
       </c>
       <c r="F81" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G81" s="51">
         <f>$G$16</f>
@@ -7116,7 +7135,7 @@
         <v>13.5</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D82" s="50">
         <v>1</v>
@@ -7125,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G82" s="51">
         <v>0.3</v>
@@ -7155,7 +7174,7 @@
       <c r="A83" s="54"/>
       <c r="B83" s="57"/>
       <c r="C83" s="64" t="s">
-        <v>190</v>
+        <v>626</v>
       </c>
       <c r="D83" s="65">
         <v>0</v>
@@ -7164,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="66" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="G83" s="67">
         <v>11</v>
@@ -7195,7 +7214,7 @@
         <v>16</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -7259,17 +7278,17 @@
     <row r="85" spans="1:27" ht="16">
       <c r="A85" s="48"/>
       <c r="B85" s="49" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D85" s="50"/>
       <c r="E85" s="50">
         <v>1</v>
       </c>
       <c r="F85" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G85" s="51">
         <f>$G$16</f>
@@ -7303,7 +7322,7 @@
         <v>23.5</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D86" s="50">
         <v>1</v>
@@ -7312,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G86" s="51">
         <v>0.3</v>
@@ -7341,10 +7360,10 @@
     <row r="87" spans="1:27" ht="16">
       <c r="A87" s="5"/>
       <c r="B87" s="63" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D87" s="50">
         <v>1</v>
@@ -7353,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="27" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="G87" s="51">
         <v>0</v>
@@ -7383,7 +7402,7 @@
       <c r="A88" s="54"/>
       <c r="B88" s="57"/>
       <c r="C88" s="64" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D88" s="65">
         <v>0</v>
@@ -7392,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="76" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="G88" s="67">
         <v>21</v>
@@ -7423,7 +7442,7 @@
         <v>17</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -7487,17 +7506,17 @@
     <row r="90" spans="1:27" ht="16">
       <c r="A90" s="48"/>
       <c r="B90" s="49" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D90" s="50"/>
       <c r="E90" s="50">
         <v>1</v>
       </c>
       <c r="F90" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G90" s="51">
         <f>$G$16</f>
@@ -7531,7 +7550,7 @@
         <v>2.5000000000000004</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D91" s="50">
         <v>1</v>
@@ -7540,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G91" s="51">
         <v>0.2</v>
@@ -7569,10 +7588,10 @@
     <row r="92" spans="1:27" ht="16">
       <c r="A92" s="5"/>
       <c r="B92" s="68" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="C92" s="64" t="s">
-        <v>200</v>
+        <v>627</v>
       </c>
       <c r="D92" s="65">
         <v>0</v>
@@ -7581,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="77" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="G92" s="67">
         <v>0.1</v>
@@ -7612,7 +7631,7 @@
         <v>18</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -7676,17 +7695,17 @@
     <row r="94" spans="1:27" ht="16">
       <c r="A94" s="48"/>
       <c r="B94" s="49" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D94" s="50"/>
       <c r="E94" s="50">
         <v>1</v>
       </c>
       <c r="F94" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G94" s="51">
         <f>$G$16</f>
@@ -7720,7 +7739,7 @@
         <v>4.5100000000000007</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="D95" s="50">
         <v>1</v>
@@ -7729,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="27" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="G95" s="51">
         <v>0.2</v>
@@ -7758,10 +7777,10 @@
     <row r="96" spans="1:27" ht="16">
       <c r="A96" s="5"/>
       <c r="B96" s="63" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>207</v>
+        <v>628</v>
       </c>
       <c r="D96" s="50">
         <v>0</v>
@@ -7798,7 +7817,7 @@
       <c r="A97" s="54"/>
       <c r="B97" s="55"/>
       <c r="C97" s="25" t="s">
-        <v>200</v>
+        <v>627</v>
       </c>
       <c r="D97" s="50">
         <v>0</v>
@@ -7807,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="56" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="G97" s="51">
         <v>0.1</v>
@@ -7837,7 +7856,7 @@
       <c r="A98" s="54"/>
       <c r="B98" s="55"/>
       <c r="C98" s="25" t="s">
-        <v>91</v>
+        <v>619</v>
       </c>
       <c r="D98" s="50">
         <v>0</v>
@@ -7846,7 +7865,7 @@
         <v>3</v>
       </c>
       <c r="F98" s="56" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G98" s="51">
         <v>0.2</v>
@@ -7876,7 +7895,7 @@
       <c r="A99" s="54"/>
       <c r="B99" s="57"/>
       <c r="C99" s="64" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D99" s="65">
         <v>0</v>
@@ -7885,7 +7904,7 @@
         <v>3</v>
       </c>
       <c r="F99" s="66" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G99" s="67">
         <v>0.47</v>
@@ -7916,7 +7935,7 @@
         <v>19</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -7980,17 +7999,17 @@
     <row r="101" spans="1:27" ht="16">
       <c r="A101" s="48"/>
       <c r="B101" s="49" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D101" s="50"/>
       <c r="E101" s="50">
         <v>1</v>
       </c>
       <c r="F101" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G101" s="51">
         <f>$G$16</f>
@@ -8024,7 +8043,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D102" s="50">
         <v>1</v>
@@ -8033,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="27" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G102" s="51">
         <v>0.3</v>
@@ -8062,10 +8081,10 @@
     <row r="103" spans="1:27" ht="16">
       <c r="A103" s="79"/>
       <c r="B103" s="79" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>207</v>
+        <v>628</v>
       </c>
       <c r="D103" s="50">
         <v>0</v>
@@ -8102,7 +8121,7 @@
       <c r="A104" s="54"/>
       <c r="B104" s="55"/>
       <c r="C104" s="25" t="s">
-        <v>200</v>
+        <v>627</v>
       </c>
       <c r="D104" s="50">
         <v>0</v>
@@ -8111,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="56" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="G104" s="51">
         <v>0.1</v>
@@ -8141,7 +8160,7 @@
       <c r="A105" s="54"/>
       <c r="B105" s="55"/>
       <c r="C105" s="25" t="s">
-        <v>91</v>
+        <v>619</v>
       </c>
       <c r="D105" s="50">
         <v>0</v>
@@ -8150,7 +8169,7 @@
         <v>3</v>
       </c>
       <c r="F105" s="56" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G105" s="51">
         <v>0.2</v>
@@ -8180,7 +8199,7 @@
       <c r="A106" s="54"/>
       <c r="B106" s="57"/>
       <c r="C106" s="64" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D106" s="65">
         <v>0</v>
@@ -8189,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="F106" s="66" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G106" s="67">
         <v>0.47</v>
@@ -8220,7 +8239,7 @@
         <v>20</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
@@ -8284,17 +8303,17 @@
     <row r="108" spans="1:27" ht="16">
       <c r="A108" s="48"/>
       <c r="B108" s="49" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D108" s="50"/>
       <c r="E108" s="50">
         <v>1</v>
       </c>
       <c r="F108" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G108" s="51">
         <f>$G$16</f>
@@ -8328,7 +8347,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="D109" s="50">
         <v>1</v>
@@ -8337,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="27" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="G109" s="51">
         <v>0.3</v>
@@ -8366,10 +8385,10 @@
     <row r="110" spans="1:27" ht="16">
       <c r="A110" s="5"/>
       <c r="B110" s="63" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="D110" s="50">
         <v>0</v>
@@ -8378,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="56" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="G110" s="51">
         <v>27</v>
@@ -8408,7 +8427,7 @@
       <c r="A111" s="54"/>
       <c r="B111" s="55"/>
       <c r="C111" s="25" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="D111" s="50">
         <v>0</v>
@@ -8417,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="56" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="G111" s="51">
         <v>4</v>
@@ -8447,7 +8466,7 @@
       <c r="A112" s="54"/>
       <c r="B112" s="57"/>
       <c r="C112" s="64" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D112" s="65">
         <v>0</v>
@@ -8456,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="F112" s="69" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="G112" s="67">
         <v>0.1</v>
@@ -8487,7 +8506,7 @@
         <v>21</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -8551,10 +8570,10 @@
     <row r="114" spans="1:27" ht="16">
       <c r="A114" s="48"/>
       <c r="B114" s="49" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D114" s="50">
         <v>1</v>
@@ -8563,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="27" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="G114" s="51">
         <v>0.2</v>
@@ -8596,7 +8615,7 @@
         <v>21.75</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D115" s="50">
         <v>1</v>
@@ -8605,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="27" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="G115" s="51">
         <v>0.5</v>
@@ -8634,10 +8653,10 @@
     <row r="116" spans="1:27" ht="16">
       <c r="A116" s="5"/>
       <c r="B116" s="63" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D116" s="50">
         <v>1</v>
@@ -8646,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="27" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G116" s="51">
         <v>0</v>
@@ -8676,7 +8695,7 @@
       <c r="A117" s="54"/>
       <c r="B117" s="55"/>
       <c r="C117" s="25" t="s">
-        <v>91</v>
+        <v>619</v>
       </c>
       <c r="D117" s="50">
         <v>0</v>
@@ -8685,7 +8704,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="56" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G117" s="51">
         <v>0.2</v>
@@ -8715,7 +8734,7 @@
       <c r="A118" s="54"/>
       <c r="B118" s="55"/>
       <c r="C118" s="25" t="s">
-        <v>232</v>
+        <v>629</v>
       </c>
       <c r="D118" s="50">
         <v>0</v>
@@ -8724,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="69" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="G118" s="51">
         <v>0.1</v>
@@ -8754,7 +8773,7 @@
       <c r="A119" s="54"/>
       <c r="B119" s="55"/>
       <c r="C119" s="25" t="s">
-        <v>207</v>
+        <v>628</v>
       </c>
       <c r="D119" s="50">
         <v>0</v>
@@ -8791,7 +8810,7 @@
       <c r="A120" s="54"/>
       <c r="B120" s="55"/>
       <c r="C120" s="25" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="D120" s="50">
         <v>1</v>
@@ -8800,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="27" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="G120" s="51">
         <v>0</v>
@@ -8830,7 +8849,7 @@
       <c r="A121" s="54"/>
       <c r="B121" s="55"/>
       <c r="C121" s="25" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D121" s="50">
         <v>0</v>
@@ -8839,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="56" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="G121" s="51">
         <v>8</v>
@@ -8869,7 +8888,7 @@
       <c r="A122" s="54"/>
       <c r="B122" s="55"/>
       <c r="C122" s="25" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="D122" s="50">
         <v>0</v>
@@ -8878,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="56" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="G122" s="51">
         <v>5.35</v>
@@ -8908,7 +8927,7 @@
       <c r="A123" s="54"/>
       <c r="B123" s="55"/>
       <c r="C123" s="25" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D123" s="50">
         <v>0</v>
@@ -8917,7 +8936,7 @@
         <v>6</v>
       </c>
       <c r="F123" s="56" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G123" s="51">
         <v>0.6</v>
@@ -8947,7 +8966,7 @@
       <c r="A124" s="54"/>
       <c r="B124" s="57"/>
       <c r="C124" s="64" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D124" s="65">
         <v>0</v>
@@ -8956,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="66" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="G124" s="67">
         <v>2.8</v>
@@ -8987,7 +9006,7 @@
         <v>22</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -9051,17 +9070,17 @@
     <row r="126" spans="1:27" ht="16">
       <c r="A126" s="48"/>
       <c r="B126" s="49" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D126" s="50"/>
       <c r="E126" s="50">
         <v>1</v>
       </c>
       <c r="F126" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G126" s="51">
         <f>$G$16</f>
@@ -9095,7 +9114,7 @@
         <v>2.5</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="D127" s="50">
         <v>1</v>
@@ -9104,7 +9123,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="27" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="G127" s="51">
         <v>0.3</v>
@@ -9133,10 +9152,10 @@
     <row r="128" spans="1:27" ht="16">
       <c r="A128" s="5"/>
       <c r="B128" s="68" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C128" s="64" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D128" s="65">
         <v>1</v>
@@ -9145,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="76" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="G128" s="67">
         <v>0</v>
@@ -9176,7 +9195,7 @@
         <v>23</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
@@ -9240,10 +9259,10 @@
     <row r="130" spans="1:27" ht="16">
       <c r="A130" s="48"/>
       <c r="B130" s="49" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D130" s="50">
         <v>1</v>
@@ -9252,7 +9271,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="53" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G130" s="51">
         <v>0.2</v>
@@ -9285,7 +9304,7 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="D131" s="50">
         <v>1</v>
@@ -9294,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="G131" s="51">
         <v>0.4</v>
@@ -9323,10 +9342,10 @@
     <row r="132" spans="1:27" ht="16">
       <c r="A132" s="5"/>
       <c r="B132" s="68" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="C132" s="64" t="s">
-        <v>91</v>
+        <v>619</v>
       </c>
       <c r="D132" s="65">
         <v>0</v>
@@ -9335,7 +9354,7 @@
         <v>4</v>
       </c>
       <c r="F132" s="66" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G132" s="67">
         <v>0.2</v>
@@ -9366,7 +9385,7 @@
         <v>24</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
@@ -9430,10 +9449,10 @@
     <row r="134" spans="1:27" ht="16">
       <c r="A134" s="48"/>
       <c r="B134" s="49" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D134" s="50">
         <v>1</v>
@@ -9442,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="27" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="G134" s="51">
         <v>0.5</v>
@@ -9475,7 +9494,7 @@
         <v>50.35</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="D135" s="50">
         <v>1</v>
@@ -9484,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="27" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="G135" s="51">
         <v>0.3</v>
@@ -9513,10 +9532,10 @@
     <row r="136" spans="1:27" ht="16">
       <c r="A136" s="5"/>
       <c r="B136" s="63" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="D136" s="50">
         <v>1</v>
@@ -9525,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="27" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="G136" s="51">
         <v>0.6</v>
@@ -9555,7 +9574,7 @@
       <c r="A137" s="54"/>
       <c r="B137" s="55"/>
       <c r="C137" s="25" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D137" s="50">
         <v>1</v>
@@ -9564,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="27" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G137" s="51">
         <v>0</v>
@@ -9594,7 +9613,7 @@
       <c r="A138" s="54"/>
       <c r="B138" s="55"/>
       <c r="C138" s="25" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="D138" s="50">
         <v>1</v>
@@ -9603,7 +9622,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="27" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="G138" s="51">
         <v>0.1</v>
@@ -9633,7 +9652,7 @@
       <c r="A139" s="54"/>
       <c r="B139" s="55"/>
       <c r="C139" s="25" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="D139" s="50">
         <v>1</v>
@@ -9642,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="27" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="G139" s="51">
         <v>0.3</v>
@@ -9672,7 +9691,7 @@
       <c r="A140" s="54"/>
       <c r="B140" s="55"/>
       <c r="C140" s="25" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="D140" s="50">
         <v>1</v>
@@ -9681,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="27" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="G140" s="51">
         <v>0.2</v>
@@ -9711,7 +9730,7 @@
       <c r="A141" s="54"/>
       <c r="B141" s="55"/>
       <c r="C141" s="25" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="D141" s="50">
         <v>1</v>
@@ -9720,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="G141" s="51">
         <v>0.1</v>
@@ -9750,7 +9769,7 @@
       <c r="A142" s="54"/>
       <c r="B142" s="55"/>
       <c r="C142" s="25" t="s">
-        <v>266</v>
+        <v>630</v>
       </c>
       <c r="D142" s="50">
         <v>0</v>
@@ -9759,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="56" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="G142" s="51">
         <v>15.4</v>
@@ -9789,7 +9808,7 @@
       <c r="A143" s="54"/>
       <c r="B143" s="55"/>
       <c r="C143" s="25" t="s">
-        <v>91</v>
+        <v>619</v>
       </c>
       <c r="D143" s="50">
         <v>0</v>
@@ -9798,7 +9817,7 @@
         <v>20</v>
       </c>
       <c r="F143" s="56" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G143" s="51">
         <v>0.6</v>
@@ -9828,7 +9847,7 @@
       <c r="A144" s="54"/>
       <c r="B144" s="55"/>
       <c r="C144" s="25" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="D144" s="50">
         <v>0</v>
@@ -9837,7 +9856,7 @@
         <v>3</v>
       </c>
       <c r="F144" s="56" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G144" s="51">
         <v>0.2</v>
@@ -9867,7 +9886,7 @@
       <c r="A145" s="54"/>
       <c r="B145" s="55"/>
       <c r="C145" s="25" t="s">
-        <v>268</v>
+        <v>632</v>
       </c>
       <c r="D145" s="50">
         <v>0</v>
@@ -9876,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="69" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="G145" s="51">
         <v>0.1</v>
@@ -9906,7 +9925,7 @@
       <c r="A146" s="54"/>
       <c r="B146" s="55"/>
       <c r="C146" s="25" t="s">
-        <v>164</v>
+        <v>624</v>
       </c>
       <c r="D146" s="50">
         <v>0</v>
@@ -9915,7 +9934,7 @@
         <v>2</v>
       </c>
       <c r="F146" s="56" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="G146" s="51">
         <v>0.2</v>
@@ -9945,7 +9964,7 @@
       <c r="A147" s="54"/>
       <c r="B147" s="55"/>
       <c r="C147" s="25" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D147" s="50">
         <v>0</v>
@@ -9954,7 +9973,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="56" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="G147" s="51">
         <v>8</v>
@@ -9984,7 +10003,7 @@
       <c r="A148" s="54"/>
       <c r="B148" s="55"/>
       <c r="C148" s="25" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="D148" s="50">
         <v>0</v>
@@ -9993,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="56" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="G148" s="51">
         <v>5.35</v>
@@ -10023,7 +10042,7 @@
       <c r="A149" s="54"/>
       <c r="B149" s="55"/>
       <c r="C149" s="25" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D149" s="50">
         <v>0</v>
@@ -10032,7 +10051,7 @@
         <v>6</v>
       </c>
       <c r="F149" s="56" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G149" s="51">
         <v>0.6</v>
@@ -10062,7 +10081,7 @@
       <c r="A150" s="54"/>
       <c r="B150" s="57"/>
       <c r="C150" s="64" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D150" s="65">
         <v>0</v>
@@ -10071,7 +10090,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="66" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="G150" s="67">
         <v>2.8</v>
@@ -10102,7 +10121,7 @@
         <v>25</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
@@ -10166,10 +10185,10 @@
     <row r="152" spans="1:27" ht="16">
       <c r="A152" s="48"/>
       <c r="B152" s="49" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D152" s="50">
         <v>1</v>
@@ -10178,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="27" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="G152" s="51">
         <v>0.5</v>
@@ -10211,7 +10230,7 @@
         <v>30.700000000000003</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="D153" s="50">
         <v>1</v>
@@ -10220,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="27" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="G153" s="51">
         <v>0.3</v>
@@ -10249,10 +10268,10 @@
     <row r="154" spans="1:27" ht="16">
       <c r="A154" s="5"/>
       <c r="B154" s="63" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="D154" s="50">
         <v>1</v>
@@ -10261,7 +10280,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="27" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="G154" s="51">
         <v>0.6</v>
@@ -10291,7 +10310,7 @@
       <c r="A155" s="54"/>
       <c r="B155" s="55"/>
       <c r="C155" s="25" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="D155" s="50">
         <v>1</v>
@@ -10300,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="27" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="G155" s="51">
         <v>0.1</v>
@@ -10330,7 +10349,7 @@
       <c r="A156" s="54"/>
       <c r="B156" s="55"/>
       <c r="C156" s="81" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="D156" s="50">
         <v>1</v>
@@ -10339,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="27" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="G156" s="51">
         <v>0.2</v>
@@ -10369,7 +10388,7 @@
       <c r="A157" s="54"/>
       <c r="B157" s="55"/>
       <c r="C157" s="81" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="D157" s="50">
         <v>1</v>
@@ -10378,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="27" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="G157" s="51">
         <v>0.1</v>
@@ -10408,7 +10427,7 @@
       <c r="A158" s="54"/>
       <c r="B158" s="55"/>
       <c r="C158" s="81" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="D158" s="50">
         <v>1</v>
@@ -10417,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="27" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="G158" s="51">
         <v>0.1</v>
@@ -10447,7 +10466,7 @@
       <c r="A159" s="54"/>
       <c r="B159" s="55"/>
       <c r="C159" s="81" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="D159" s="50">
         <v>1</v>
@@ -10456,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="27" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="G159" s="51">
         <v>0.3</v>
@@ -10486,7 +10505,7 @@
       <c r="A160" s="54"/>
       <c r="B160" s="55"/>
       <c r="C160" s="25" t="s">
-        <v>266</v>
+        <v>630</v>
       </c>
       <c r="D160" s="50">
         <v>0</v>
@@ -10495,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="56" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="G160" s="51">
         <v>15.4</v>
@@ -10525,7 +10544,7 @@
       <c r="A161" s="54"/>
       <c r="B161" s="55"/>
       <c r="C161" s="25" t="s">
-        <v>91</v>
+        <v>619</v>
       </c>
       <c r="D161" s="50">
         <v>0</v>
@@ -10534,7 +10553,7 @@
         <v>20</v>
       </c>
       <c r="F161" s="56" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G161" s="51">
         <v>0.6</v>
@@ -10564,7 +10583,7 @@
       <c r="A162" s="54"/>
       <c r="B162" s="55"/>
       <c r="C162" s="25" t="s">
-        <v>267</v>
+        <v>631</v>
       </c>
       <c r="D162" s="50">
         <v>0</v>
@@ -10573,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="F162" s="56" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G162" s="51">
         <v>0.2</v>
@@ -10603,7 +10622,7 @@
       <c r="A163" s="54"/>
       <c r="B163" s="55"/>
       <c r="C163" s="25" t="s">
-        <v>268</v>
+        <v>632</v>
       </c>
       <c r="D163" s="50">
         <v>0</v>
@@ -10612,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="69" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="G163" s="51">
         <v>0.1</v>
@@ -10642,7 +10661,7 @@
       <c r="A164" s="54"/>
       <c r="B164" s="57"/>
       <c r="C164" s="64" t="s">
-        <v>164</v>
+        <v>624</v>
       </c>
       <c r="D164" s="65">
         <v>0</v>
@@ -10651,7 +10670,7 @@
         <v>2</v>
       </c>
       <c r="F164" s="66" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="G164" s="67">
         <v>0.2</v>
@@ -10682,7 +10701,7 @@
         <v>26</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
@@ -10746,17 +10765,17 @@
     <row r="166" spans="1:27" ht="16">
       <c r="A166" s="23"/>
       <c r="B166" s="24" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>85</v>
+        <v>618</v>
       </c>
       <c r="D166" s="50"/>
       <c r="E166" s="50">
         <v>1</v>
       </c>
       <c r="F166" s="62" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G166" s="51">
         <f>$G$16</f>
@@ -10790,7 +10809,7 @@
         <v>2.6</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="D167" s="25">
         <v>1</v>
@@ -10799,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="84" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="G167" s="51">
         <v>0.4</v>
@@ -10828,10 +10847,10 @@
     <row r="168" spans="1:27" ht="16">
       <c r="A168" s="85"/>
       <c r="B168" s="86" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D168" s="25">
         <v>1</v>
@@ -10840,7 +10859,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="84" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="G168" s="51">
         <v>0</v>
@@ -10870,7 +10889,7 @@
       <c r="A169" s="11"/>
       <c r="B169" s="87"/>
       <c r="C169" s="25" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D169" s="25">
         <v>1</v>
@@ -10879,7 +10898,7 @@
         <v>7</v>
       </c>
       <c r="F169" s="84" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="G169" s="51">
         <v>0</v>
@@ -10909,7 +10928,7 @@
       <c r="A170" s="11"/>
       <c r="B170" s="88"/>
       <c r="C170" s="64" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D170" s="64">
         <v>1</v>
@@ -10918,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="89" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="G170" s="67">
         <v>0</v>
@@ -10949,7 +10968,7 @@
         <v>27</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C171" s="90"/>
       <c r="D171" s="90"/>
@@ -11013,14 +11032,14 @@
     <row r="172" spans="1:27" ht="16">
       <c r="A172" s="34"/>
       <c r="C172" s="25" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D172" s="50"/>
       <c r="E172" s="50">
         <v>1</v>
       </c>
       <c r="F172" s="56" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="G172" s="51">
         <v>40</v>
@@ -11029,7 +11048,7 @@
       <c r="I172" s="29"/>
       <c r="J172" s="30"/>
       <c r="K172" s="5" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="L172" s="29"/>
       <c r="M172" s="29"/>
@@ -11055,14 +11074,14 @@
         <v>187.8</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D173" s="50"/>
       <c r="E173" s="50">
         <v>1</v>
       </c>
       <c r="F173" s="56" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="G173" s="51">
         <v>64.5</v>
@@ -11092,14 +11111,14 @@
       <c r="A174" s="54"/>
       <c r="B174" s="55"/>
       <c r="C174" s="25" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D174" s="50"/>
       <c r="E174" s="50">
         <v>1</v>
       </c>
       <c r="F174" s="56" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="G174" s="51">
         <v>22.3</v>
@@ -11129,14 +11148,14 @@
       <c r="A175" s="54"/>
       <c r="B175" s="55"/>
       <c r="C175" s="25" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="D175" s="50"/>
       <c r="E175" s="50">
         <v>1</v>
       </c>
       <c r="F175" s="56" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="G175" s="51">
         <v>9.5</v>
@@ -11166,14 +11185,14 @@
       <c r="A176" s="54"/>
       <c r="B176" s="55"/>
       <c r="C176" s="25" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="D176" s="50"/>
       <c r="E176" s="50">
         <v>1</v>
       </c>
       <c r="F176" s="56" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="G176" s="51">
         <v>11</v>
@@ -11203,14 +11222,14 @@
       <c r="A177" s="54"/>
       <c r="B177" s="55"/>
       <c r="C177" s="25" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="D177" s="50"/>
       <c r="E177" s="50">
         <v>1</v>
       </c>
       <c r="F177" s="56" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="G177" s="51">
         <v>27</v>
@@ -11240,14 +11259,14 @@
       <c r="A178" s="54"/>
       <c r="B178" s="57"/>
       <c r="C178" s="64" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="D178" s="65"/>
       <c r="E178" s="65">
         <v>1</v>
       </c>
       <c r="F178" s="66" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="G178" s="67">
         <v>13.5</v>
@@ -11278,7 +11297,7 @@
         <v>28</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="C179" s="90"/>
       <c r="D179" s="90"/>
@@ -11309,7 +11328,7 @@
     <row r="180" spans="1:27" ht="16">
       <c r="A180" s="43"/>
       <c r="B180" s="93" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="C180" s="94"/>
       <c r="D180" s="50"/>
@@ -11317,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="56" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="G180" s="95">
         <v>7</v>
@@ -11376,7 +11395,7 @@
     <row r="181" spans="1:27" ht="16">
       <c r="A181" s="43"/>
       <c r="B181" s="93" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="C181" s="94"/>
       <c r="D181" s="50"/>
@@ -11384,7 +11403,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="56" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="G181" s="95">
         <v>13.1</v>
@@ -11443,7 +11462,7 @@
     <row r="182" spans="1:27" ht="16">
       <c r="A182" s="96"/>
       <c r="B182" s="97" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C182" s="94"/>
       <c r="D182" s="98"/>
@@ -11451,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="27" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G182" s="99">
         <v>0</v>
@@ -11510,7 +11529,7 @@
     <row r="183" spans="1:27" ht="16">
       <c r="A183" s="96"/>
       <c r="B183" s="97" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="C183" s="94"/>
       <c r="D183" s="98"/>
@@ -11575,7 +11594,7 @@
     <row r="184" spans="1:27" ht="16">
       <c r="A184" s="96"/>
       <c r="B184" s="103" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="C184" s="104"/>
       <c r="D184" s="105"/>
@@ -35664,6 +35683,8 @@
     <hyperlink ref="F180" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
     <hyperlink ref="F181" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
     <hyperlink ref="F182" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="M2" r:id="rId184" tooltip="APP_INLINE_HOLOGRAM" display="https://github.com/AlecVercruysse/UC2-GIT/tree/master/APPLICATIONS/APP_INLINE_HOLOGRAM" xr:uid="{663A12FC-7D51-2242-BAA3-285FC9F36B4F}"/>
+    <hyperlink ref="N2" r:id="rId185" tooltip="APP_Incubator_Microscope" display="https://github.com/AlecVercruysse/UC2-GIT/tree/master/APPLICATIONS/APP_Incubator_Microscope" xr:uid="{249B466A-B2F4-3E49-A3E2-5A97B2CCAF10}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -35688,18 +35709,18 @@
     <row r="1" spans="3:25" ht="15.75" customHeight="1"/>
     <row r="2" spans="3:25" ht="15.75" customHeight="1">
       <c r="C2" s="109" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="3:25" ht="15.75" customHeight="1"/>
     <row r="4" spans="3:25" ht="15.75" customHeight="1">
       <c r="C4" s="110" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="3:25" ht="15.75" customHeight="1">
       <c r="C5" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="3:25" ht="15.75" customHeight="1"/>
@@ -35707,28 +35728,28 @@
     <row r="8" spans="3:25" ht="15.75" customHeight="1"/>
     <row r="9" spans="3:25" ht="15.75" customHeight="1">
       <c r="C9" s="111" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="3:25" ht="15.75" customHeight="1">
       <c r="C10" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="3:25" ht="15.75" customHeight="1">
       <c r="C11" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="3:25" ht="15.75" customHeight="1">
       <c r="C12" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="3:25" ht="15.75" customHeight="1"/>
     <row r="14" spans="3:25" ht="15.75" customHeight="1">
       <c r="E14" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -35745,7 +35766,7 @@
     </row>
     <row r="15" spans="3:25" ht="15.75" customHeight="1">
       <c r="E15" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -35774,7 +35795,7 @@
     </row>
     <row r="16" spans="3:25" ht="15.75" customHeight="1">
       <c r="E16" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -35814,7 +35835,7 @@
     </row>
     <row r="17" spans="4:25" ht="15.75" customHeight="1">
       <c r="E17" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -35845,67 +35866,67 @@
     </row>
     <row r="18" spans="4:25" ht="183" customHeight="1">
       <c r="F18" s="113" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G18" s="114" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="H18" s="115" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="I18" s="115" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="J18" s="115" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="K18" s="115" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="L18" s="115" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="M18" s="115" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="N18" s="115" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="O18" s="115" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="P18" s="115" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="115" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="R18" s="115" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="S18" s="115" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="T18" s="115" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="U18" s="115" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="V18" s="115" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="W18" s="115" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="X18" s="112" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="Y18" s="112"/>
     </row>
     <row r="19" spans="4:25" ht="15.75" customHeight="1">
       <c r="E19" s="116" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="117"/>
@@ -35931,11 +35952,11 @@
         <v>1</v>
       </c>
       <c r="E20" s="118" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="117" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="H20" s="117">
         <v>1</v>
@@ -35973,11 +35994,11 @@
         <v>2</v>
       </c>
       <c r="E21" s="118" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="F21" s="117"/>
       <c r="G21" s="117" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="H21" s="117"/>
       <c r="I21" s="117">
@@ -36003,11 +36024,11 @@
         <v>3</v>
       </c>
       <c r="E22" s="118" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F22" s="117"/>
       <c r="G22" s="117" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
@@ -36045,11 +36066,11 @@
         <v>4</v>
       </c>
       <c r="E23" s="118" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="F23" s="117"/>
       <c r="G23" s="117" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="H23" s="117"/>
       <c r="I23" s="117"/>
@@ -36085,11 +36106,11 @@
         <v>5</v>
       </c>
       <c r="E24" s="118" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="F24" s="117"/>
       <c r="G24" s="117" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="H24" s="117"/>
       <c r="I24" s="117"/>
@@ -36112,7 +36133,7 @@
       <c r="V24" s="117"/>
       <c r="W24" s="117"/>
       <c r="X24" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="4:25" ht="15.75" customHeight="1">
@@ -36120,11 +36141,11 @@
         <v>6</v>
       </c>
       <c r="E25" s="118" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="F25" s="117"/>
       <c r="G25" s="117" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="H25" s="117"/>
       <c r="I25" s="117">
@@ -36150,11 +36171,11 @@
         <v>7</v>
       </c>
       <c r="E26" s="118" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="F26" s="117"/>
       <c r="G26" s="117" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="H26" s="117"/>
       <c r="I26" s="117">
@@ -36183,7 +36204,7 @@
       <c r="V26" s="117"/>
       <c r="W26" s="117"/>
       <c r="X26" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="4:25" ht="15.75" customHeight="1">
@@ -36191,11 +36212,11 @@
         <v>8</v>
       </c>
       <c r="E27" s="118" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F27" s="117"/>
       <c r="G27" s="117" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="H27" s="117"/>
       <c r="I27" s="117">
@@ -36222,7 +36243,7 @@
         <v>1</v>
       </c>
       <c r="X27" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="4:25" ht="15.75" customHeight="1">
@@ -36230,11 +36251,11 @@
         <v>9</v>
       </c>
       <c r="E28" s="118" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F28" s="117"/>
       <c r="G28" s="117" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="H28" s="117">
         <v>1</v>
@@ -36264,7 +36285,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="119" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F29" s="117"/>
       <c r="G29" s="117"/>
@@ -37346,7 +37367,7 @@
   <sheetData>
     <row r="1" spans="2:57" ht="15.75" customHeight="1">
       <c r="B1" s="48" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="AD1" s="48"/>
       <c r="AE1" s="48"/>
@@ -37363,14 +37384,14 @@
       <c r="AN1" s="48"/>
       <c r="AO1" s="48"/>
       <c r="AP1" s="48" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="AQ1" s="48" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="AR1" s="48"/>
       <c r="AS1" s="48" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="AT1" s="48"/>
       <c r="AU1" s="48"/>
@@ -37382,101 +37403,101 @@
       <c r="BA1" s="48"/>
       <c r="BB1" s="48"/>
       <c r="BC1" s="48" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="BD1" s="48" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="2:57" ht="15.75" customHeight="1">
       <c r="B2" s="48" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="AD2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AE2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AF2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AG2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AH2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AI2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AJ2" s="48" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="AK2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AL2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AM2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AN2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AO2" s="48" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AP2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AQ2" s="48" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AR2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AS2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AT2" s="48" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AU2" s="48" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AV2" s="48" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AW2" s="48" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AX2" s="48" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AY2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AZ2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="BA2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="BB2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="BC2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="BD2" s="48" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="2:57" ht="15.75" customHeight="1">
       <c r="B3" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -37668,67 +37689,67 @@
       <c r="AB4" s="120"/>
       <c r="AC4" s="120"/>
       <c r="AD4" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="AE4" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="AF4" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="AG4" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="AH4" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="AI4" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="AJ4" s="48" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="AK4" s="123" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="AL4" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="AM4" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="AN4" s="48" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="AO4" s="48" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="AP4" s="48" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="AQ4" s="48" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AR4" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="AS4" s="48" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AT4" s="48" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AU4" s="48" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AV4" s="48" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AW4" s="48" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AX4" s="48" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AY4" s="48"/>
       <c r="AZ4" s="48"/>
@@ -37739,7 +37760,7 @@
     </row>
     <row r="5" spans="2:57" ht="15.75" customHeight="1">
       <c r="B5" s="120" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="C5" s="120"/>
       <c r="D5" s="121"/>
@@ -37769,233 +37790,233 @@
       <c r="AB5" s="120"/>
       <c r="AC5" s="120"/>
       <c r="AD5" s="125" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="AE5" s="69" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="AF5" s="127" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="AG5" s="69" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="AH5" s="128" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="AI5" s="69" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="AJ5" s="69" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="AK5" s="123" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="AL5" s="69" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="AM5" s="69" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="AN5" s="69" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="AO5" s="69" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AP5" s="69" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="AQ5" s="69" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AR5" s="69" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AS5" s="69" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="AT5" s="69" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AU5" s="69" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AV5" s="69" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="AW5" s="69" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="AX5" s="69" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="AY5" s="69" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AZ5" s="69" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="BA5" s="69" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="BB5" s="69" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="BC5" s="124" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="BD5" s="124" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="2:57" ht="15.75" customHeight="1">
       <c r="B6" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="AD6" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="AE6" s="48" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="AF6" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="AG6" s="129" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="AH6" s="130" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="AI6" s="130" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="AJ6" s="130" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="AK6" s="48" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="AL6" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="AM6" s="48" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="AN6" s="48" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="AO6" s="48" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="AP6" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="AQ6" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="AR6" s="129" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="AS6" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="AT6" s="48" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="AU6" s="48" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="AV6" s="48" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="AW6" s="48" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="AX6" s="48" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="AY6" s="48" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="AZ6" s="48" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="BA6" s="48" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="BB6" s="48" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="BC6" s="48" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="BD6" s="48" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="2:57" ht="15.75" customHeight="1">
       <c r="B7" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="E7" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="F7" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="G7" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="H7" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="I7" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="J7" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="K7" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="L7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="M7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="N7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="O7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="P7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="Q7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="R7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="S7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="T7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="U7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="2:57" ht="15.75" hidden="1" customHeight="1"/>
@@ -38005,7 +38026,7 @@
     <row r="12" spans="2:57" ht="15.75" hidden="1" customHeight="1"/>
     <row r="13" spans="2:57" ht="15.75" customHeight="1">
       <c r="B13" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="D13" s="131">
         <v>4</v>
@@ -38222,7 +38243,7 @@
     </row>
     <row r="14" spans="2:57" ht="15.75" customHeight="1">
       <c r="B14" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D14" s="132">
         <f t="shared" ref="D14:AC14" si="2">D13*D3</f>
@@ -38439,7 +38460,7 @@
     </row>
     <row r="15" spans="2:57" ht="15.75" customHeight="1">
       <c r="B15" s="48" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="D15" s="132"/>
       <c r="E15" s="132"/>
@@ -38498,174 +38519,174 @@
     </row>
     <row r="16" spans="2:57" ht="150" customHeight="1">
       <c r="B16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="114" t="s">
+        <v>395</v>
+      </c>
+      <c r="E16" s="115" t="s">
+        <v>396</v>
+      </c>
+      <c r="F16" s="115" t="s">
+        <v>397</v>
+      </c>
+      <c r="G16" s="115" t="s">
+        <v>398</v>
+      </c>
+      <c r="H16" s="115" t="s">
+        <v>399</v>
+      </c>
+      <c r="I16" s="115" t="s">
+        <v>400</v>
+      </c>
+      <c r="J16" s="115" t="s">
+        <v>401</v>
+      </c>
+      <c r="K16" s="115" t="s">
+        <v>402</v>
+      </c>
+      <c r="L16" s="134" t="s">
+        <v>403</v>
+      </c>
+      <c r="M16" s="134" t="s">
+        <v>404</v>
+      </c>
+      <c r="N16" s="134" t="s">
+        <v>405</v>
+      </c>
+      <c r="O16" s="134" t="s">
+        <v>406</v>
+      </c>
+      <c r="P16" s="134" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q16" s="134" t="s">
+        <v>408</v>
+      </c>
+      <c r="R16" s="134" t="s">
+        <v>409</v>
+      </c>
+      <c r="S16" s="134" t="s">
+        <v>410</v>
+      </c>
+      <c r="T16" s="134" t="s">
+        <v>411</v>
+      </c>
+      <c r="U16" s="134" t="s">
+        <v>412</v>
+      </c>
+      <c r="V16" s="134" t="s">
+        <v>413</v>
+      </c>
+      <c r="W16" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="X16" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y16" s="135" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z16" s="135" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA16" s="135" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB16" s="135" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC16" s="135" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD16" s="136" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE16" s="136" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF16" s="136" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG16" s="136" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH16" s="136" t="s">
+        <v>425</v>
+      </c>
+      <c r="AI16" s="137" t="s">
         <v>426</v>
       </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="114" t="s">
+      <c r="AJ16" s="136" t="s">
         <v>427</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="AK16" s="136" t="s">
         <v>428</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="AL16" s="136" t="s">
         <v>429</v>
       </c>
-      <c r="G16" s="115" t="s">
+      <c r="AM16" s="136" t="s">
         <v>430</v>
       </c>
-      <c r="H16" s="115" t="s">
+      <c r="AN16" s="137" t="s">
         <v>431</v>
       </c>
-      <c r="I16" s="115" t="s">
+      <c r="AO16" s="136" t="s">
         <v>432</v>
       </c>
-      <c r="J16" s="115" t="s">
+      <c r="AP16" s="136" t="s">
         <v>433</v>
       </c>
-      <c r="K16" s="115" t="s">
+      <c r="AQ16" s="136" t="s">
         <v>434</v>
       </c>
-      <c r="L16" s="134" t="s">
+      <c r="AR16" s="136" t="s">
         <v>435</v>
       </c>
-      <c r="M16" s="134" t="s">
+      <c r="AS16" s="136" t="s">
         <v>436</v>
       </c>
-      <c r="N16" s="134" t="s">
+      <c r="AT16" s="137" t="s">
         <v>437</v>
       </c>
-      <c r="O16" s="134" t="s">
+      <c r="AU16" s="137" t="s">
         <v>438</v>
       </c>
-      <c r="P16" s="134" t="s">
+      <c r="AV16" s="137" t="s">
         <v>439</v>
       </c>
-      <c r="Q16" s="134" t="s">
+      <c r="AW16" s="137" t="s">
         <v>440</v>
       </c>
-      <c r="R16" s="134" t="s">
+      <c r="AX16" s="137" t="s">
         <v>441</v>
       </c>
-      <c r="S16" s="134" t="s">
+      <c r="AY16" s="136" t="s">
         <v>442</v>
       </c>
-      <c r="T16" s="134" t="s">
+      <c r="AZ16" s="136" t="s">
         <v>443</v>
       </c>
-      <c r="U16" s="134" t="s">
+      <c r="BA16" s="136" t="s">
         <v>444</v>
       </c>
-      <c r="V16" s="134" t="s">
+      <c r="BB16" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="W16" s="135" t="s">
+      <c r="BC16" s="137" t="s">
         <v>446</v>
       </c>
-      <c r="X16" s="135" t="s">
+      <c r="BD16" s="137" t="s">
         <v>447</v>
-      </c>
-      <c r="Y16" s="135" t="s">
-        <v>448</v>
-      </c>
-      <c r="Z16" s="135" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA16" s="135" t="s">
-        <v>450</v>
-      </c>
-      <c r="AB16" s="135" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC16" s="135" t="s">
-        <v>452</v>
-      </c>
-      <c r="AD16" s="136" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE16" s="136" t="s">
-        <v>454</v>
-      </c>
-      <c r="AF16" s="136" t="s">
-        <v>455</v>
-      </c>
-      <c r="AG16" s="136" t="s">
-        <v>456</v>
-      </c>
-      <c r="AH16" s="136" t="s">
-        <v>457</v>
-      </c>
-      <c r="AI16" s="137" t="s">
-        <v>458</v>
-      </c>
-      <c r="AJ16" s="136" t="s">
-        <v>459</v>
-      </c>
-      <c r="AK16" s="136" t="s">
-        <v>460</v>
-      </c>
-      <c r="AL16" s="136" t="s">
-        <v>461</v>
-      </c>
-      <c r="AM16" s="136" t="s">
-        <v>462</v>
-      </c>
-      <c r="AN16" s="137" t="s">
-        <v>463</v>
-      </c>
-      <c r="AO16" s="136" t="s">
-        <v>464</v>
-      </c>
-      <c r="AP16" s="136" t="s">
-        <v>465</v>
-      </c>
-      <c r="AQ16" s="136" t="s">
-        <v>466</v>
-      </c>
-      <c r="AR16" s="136" t="s">
-        <v>467</v>
-      </c>
-      <c r="AS16" s="136" t="s">
-        <v>468</v>
-      </c>
-      <c r="AT16" s="137" t="s">
-        <v>469</v>
-      </c>
-      <c r="AU16" s="137" t="s">
-        <v>470</v>
-      </c>
-      <c r="AV16" s="137" t="s">
-        <v>471</v>
-      </c>
-      <c r="AW16" s="137" t="s">
-        <v>472</v>
-      </c>
-      <c r="AX16" s="137" t="s">
-        <v>473</v>
-      </c>
-      <c r="AY16" s="136" t="s">
-        <v>474</v>
-      </c>
-      <c r="AZ16" s="136" t="s">
-        <v>475</v>
-      </c>
-      <c r="BA16" s="136" t="s">
-        <v>476</v>
-      </c>
-      <c r="BB16" s="136" t="s">
-        <v>477</v>
-      </c>
-      <c r="BC16" s="137" t="s">
-        <v>478</v>
-      </c>
-      <c r="BD16" s="137" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="17" spans="2:56" ht="15.75" customHeight="1">
       <c r="B17" s="138" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -38676,7 +38697,7 @@
     </row>
     <row r="18" spans="2:56" ht="15.75" customHeight="1">
       <c r="B18" s="139" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -38705,7 +38726,7 @@
     </row>
     <row r="19" spans="2:56" ht="15.75" customHeight="1">
       <c r="B19" s="139" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -38734,7 +38755,7 @@
     </row>
     <row r="20" spans="2:56" ht="15.75" customHeight="1">
       <c r="B20" s="139" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -38763,7 +38784,7 @@
     </row>
     <row r="21" spans="2:56" ht="15.75" customHeight="1">
       <c r="B21" s="139" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -38816,7 +38837,7 @@
     </row>
     <row r="22" spans="2:56" ht="15.75" customHeight="1">
       <c r="B22" s="139" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -38854,7 +38875,7 @@
     </row>
     <row r="23" spans="2:56" ht="15.75" customHeight="1">
       <c r="B23" s="139" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -38889,7 +38910,7 @@
     </row>
     <row r="24" spans="2:56" ht="15.75" customHeight="1">
       <c r="B24" s="139" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -38921,7 +38942,7 @@
     </row>
     <row r="25" spans="2:56" ht="15.75" customHeight="1">
       <c r="B25" s="139" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -38956,7 +38977,7 @@
     </row>
     <row r="26" spans="2:56" ht="15.75" customHeight="1">
       <c r="B26" s="139" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -38988,7 +39009,7 @@
     </row>
     <row r="27" spans="2:56" ht="15.75" customHeight="1">
       <c r="B27" s="139" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -39014,7 +39035,7 @@
     </row>
     <row r="28" spans="2:56" ht="15.75" customHeight="1">
       <c r="B28" s="139" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -39037,7 +39058,7 @@
     </row>
     <row r="29" spans="2:56" ht="15.75" customHeight="1">
       <c r="B29" s="139" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -39048,7 +39069,7 @@
     </row>
     <row r="30" spans="2:56" ht="15.75" customHeight="1">
       <c r="B30" s="139" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -39074,7 +39095,7 @@
     </row>
     <row r="31" spans="2:56" ht="15.75" customHeight="1">
       <c r="B31" s="139" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -39091,7 +39112,7 @@
     </row>
     <row r="32" spans="2:56" ht="15.75" customHeight="1">
       <c r="B32" s="139" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -39114,7 +39135,7 @@
     </row>
     <row r="33" spans="2:50" ht="15.75" customHeight="1">
       <c r="B33" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -39151,7 +39172,7 @@
     <row r="35" spans="2:50" ht="15.75" customHeight="1"/>
     <row r="36" spans="2:50" ht="15.75" customHeight="1">
       <c r="B36" s="139" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="C36">
         <f>SUM(C17:C35)</f>
@@ -39161,33 +39182,33 @@
     <row r="37" spans="2:50" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:50" ht="15.75" customHeight="1">
       <c r="B38" s="140" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="I38" s="48" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="2:50" ht="15.75" customHeight="1">
       <c r="B39" s="130" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="C39" s="48">
         <v>4.8899999999999997</v>
@@ -39200,15 +39221,15 @@
         <v>9.7799999999999994</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="2:50" ht="15.75" customHeight="1">
       <c r="B40" s="48" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="C40" s="48">
         <v>4.8899999999999997</v>
@@ -39221,15 +39242,15 @@
         <v>9.7799999999999994</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="2:50" ht="15.75" customHeight="1">
       <c r="B41" s="48" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="C41" s="48">
         <v>55</v>
@@ -39242,15 +39263,15 @@
         <v>55</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="2:50" ht="15.75" customHeight="1">
       <c r="B42" s="48" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="C42" s="48">
         <v>4.8899999999999997</v>
@@ -39263,15 +39284,15 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="2:50" ht="15.75" customHeight="1">
       <c r="B43" s="48" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="C43" s="48">
         <v>1.6</v>
@@ -39284,21 +39305,21 @@
         <v>1.6</v>
       </c>
       <c r="F43" s="69" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="I43" s="69" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="J43" s="48" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="2:50" ht="15.75" customHeight="1">
       <c r="B44" s="48" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="C44" s="48">
         <v>1.6</v>
@@ -39311,15 +39332,15 @@
         <v>1.6</v>
       </c>
       <c r="F44" s="69" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="2:50" ht="15.75" customHeight="1">
       <c r="B45" s="140" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="E45">
         <f t="shared" si="4"/>
@@ -39328,7 +39349,7 @@
     </row>
     <row r="46" spans="2:50" ht="15.75" customHeight="1">
       <c r="B46" s="48" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="C46" s="48">
         <v>39</v>
@@ -39341,15 +39362,15 @@
         <v>39</v>
       </c>
       <c r="F46" s="69" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="2:50" ht="15.75" customHeight="1">
       <c r="B47" s="48" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="C47" s="48">
         <v>10</v>
@@ -39362,15 +39383,15 @@
         <v>10</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="2:50" ht="15.75" customHeight="1">
       <c r="B48" s="48" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="C48" s="48">
         <v>11</v>
@@ -39383,15 +39404,15 @@
         <v>11</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1">
       <c r="B49" s="48" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="C49" s="48">
         <v>15</v>
@@ -39404,10 +39425,10 @@
         <v>15</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
@@ -39418,7 +39439,7 @@
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="141" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="E51">
         <f t="shared" si="4"/>
@@ -39427,7 +39448,7 @@
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1">
       <c r="B52" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="C52" s="48">
         <v>11</v>
@@ -39440,15 +39461,15 @@
         <v>11</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1">
       <c r="B53" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="C53" s="48">
         <v>5.99</v>
@@ -39461,15 +39482,15 @@
         <v>5.99</v>
       </c>
       <c r="F53" s="69" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1">
       <c r="B54" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="C54" s="48">
         <v>2</v>
@@ -39482,15 +39503,15 @@
         <v>2</v>
       </c>
       <c r="F54" s="69" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="G54" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1">
       <c r="B55" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="C55" s="48">
         <v>15</v>
@@ -39503,15 +39524,15 @@
         <v>15</v>
       </c>
       <c r="F55" s="69" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1">
       <c r="B56" s="48" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="C56" s="48">
         <v>12</v>
@@ -39524,15 +39545,15 @@
         <v>12</v>
       </c>
       <c r="F56" s="69" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -39545,12 +39566,12 @@
         <v>5</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
       <c r="B58" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -39563,12 +39584,12 @@
         <v>5</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1">
       <c r="B59" s="48" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="C59" s="48">
         <v>10</v>
@@ -39581,12 +39602,12 @@
         <v>10</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="16">
       <c r="B60" s="48" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="C60" s="48">
         <v>1.8</v>
@@ -39599,21 +39620,21 @@
         <v>1.8</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="G60" s="48" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="H60" s="48" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="I60" s="48" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1">
       <c r="B61" s="48" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="C61" s="48">
         <v>0.36</v>
@@ -39626,21 +39647,21 @@
         <v>0.36</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="G61" s="48" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="H61" s="48" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="I61" s="48" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1">
       <c r="B62" s="48" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="D62" s="48">
         <v>1</v>
@@ -39652,7 +39673,7 @@
     </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1">
       <c r="B63" s="48" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="C63" s="48">
         <v>20</v>
@@ -39665,10 +39686,10 @@
         <v>20</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.75" customHeight="1">
@@ -39679,7 +39700,7 @@
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1">
       <c r="B65" s="140" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="E65">
         <f t="shared" si="4"/>
@@ -39688,7 +39709,7 @@
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1">
       <c r="B66" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="C66" s="48">
         <v>45</v>
@@ -39701,15 +39722,15 @@
         <v>45</v>
       </c>
       <c r="F66" s="69" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="G66" s="48" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1">
       <c r="B67" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="C67" s="48">
         <v>9</v>
@@ -39722,15 +39743,15 @@
         <v>9</v>
       </c>
       <c r="F67" s="69" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="G67" s="48" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1">
       <c r="B68" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="C68">
         <v>70</v>
@@ -39743,15 +39764,15 @@
         <v>70</v>
       </c>
       <c r="F68" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="G68" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1">
       <c r="B69" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="C69" s="48">
         <v>15</v>
@@ -39764,15 +39785,15 @@
         <v>15</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="G69" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1">
       <c r="B70" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="C70" s="48">
         <v>12</v>
@@ -39785,15 +39806,15 @@
         <v>12</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="G70" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1">
       <c r="B71" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="C71" s="48">
         <v>25</v>
@@ -39806,15 +39827,15 @@
         <v>25</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="G71" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1">
       <c r="B72" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="C72" s="48">
         <v>3</v>
@@ -39827,30 +39848,30 @@
         <v>3</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="G72" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1">
       <c r="B73" s="48" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="E73">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F73" s="48" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="G73" s="48" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1">
       <c r="B74" s="48" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="C74" s="48">
         <v>8.99</v>
@@ -39863,17 +39884,17 @@
         <v>8.99</v>
       </c>
       <c r="F74" s="69" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="G74" s="48" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="76" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="77" spans="2:7" ht="15.75" customHeight="1">
       <c r="B77" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="E77">
         <f>SUM(E39:E72)</f>
@@ -39883,14 +39904,14 @@
     <row r="78" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="79" spans="2:7" ht="15.75" customHeight="1">
       <c r="B79" s="142" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="C79" s="143">
         <f>E77+BE14</f>
         <v>735.58200000000011</v>
       </c>
       <c r="D79" s="142" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1"/>
@@ -39910,7 +39931,7 @@
     <row r="94" spans="2:55" ht="15.75" customHeight="1"/>
     <row r="95" spans="2:55" ht="15.75" customHeight="1">
       <c r="B95" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="2:55" ht="15.75" customHeight="1">
@@ -44406,28 +44427,28 @@
     <row r="1" spans="1:26">
       <c r="A1" s="144"/>
       <c r="B1" s="145" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="C1" s="144" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="D1" s="146" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E1" s="146" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="F1" s="146" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="G1" s="146" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="H1" s="146" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="I1" s="146" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="J1" s="147"/>
       <c r="K1" s="147"/>
@@ -44449,23 +44470,23 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="150" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="B2" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="147"/>
       <c r="E2" s="147"/>
       <c r="F2" s="147" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="G2" s="152" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="H2" s="147"/>
       <c r="I2" s="153" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="J2" s="147"/>
       <c r="K2" s="147"/>
@@ -44487,10 +44508,10 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="154" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="B3" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C3" s="155">
         <v>65.81</v>
@@ -44499,16 +44520,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="152" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F3" s="147" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="G3" s="157" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="H3" s="158" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="I3" s="148"/>
       <c r="J3" s="147"/>
@@ -44531,10 +44552,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="150" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="B4" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C4" s="155">
         <v>34.840000000000003</v>
@@ -44547,13 +44568,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="F4" s="147" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="G4" s="152" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="H4" s="158" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="I4" s="148"/>
       <c r="J4" s="147"/>
@@ -44576,13 +44597,13 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="150" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="B5" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C5" s="160" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="D5" s="156">
         <v>2</v>
@@ -44592,13 +44613,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="F5" s="147" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="G5" s="152" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="H5" s="158" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="I5" s="148"/>
       <c r="J5" s="147"/>
@@ -44621,10 +44642,10 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="161" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="B6" s="162" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C6" s="147"/>
       <c r="D6" s="156">
@@ -44635,14 +44656,14 @@
         <v>#VALUE!</v>
       </c>
       <c r="F6" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G6" s="163" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="H6" s="148"/>
       <c r="I6" s="164" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="J6" s="147"/>
       <c r="K6" s="147"/>
@@ -44664,25 +44685,25 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="161" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="B7" s="162" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C7" s="147"/>
       <c r="D7" s="147">
         <v>1</v>
       </c>
       <c r="E7" s="152" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="F7" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G7" s="147"/>
       <c r="H7" s="147"/>
       <c r="I7" s="147" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="J7" s="147"/>
       <c r="K7" s="147"/>
@@ -44704,20 +44725,20 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="161" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="B8" s="162" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C8" s="147"/>
       <c r="D8" s="147">
         <v>1</v>
       </c>
       <c r="E8" s="152" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F8" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G8" s="147"/>
       <c r="H8" s="147"/>
@@ -44742,10 +44763,10 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="161" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="B9" s="162" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C9" s="147"/>
       <c r="D9" s="156">
@@ -44756,7 +44777,7 @@
         <v>https://www.amazon.de/Edelstahl-Sechskopf-Knopf-Schrauben-Unterlegscheiben-Sortiment-Aufbewahrung/dp/B073SS7D8J/ref=sr_1_fkmr0_1?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=zylinderkopfschrauben+set+galvanisiert&amp;qid=1565007371&amp;s=diy&amp;sr=1-1-fkmr0</v>
       </c>
       <c r="F9" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G9" s="147"/>
       <c r="H9" s="147"/>
@@ -44781,7 +44802,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="165" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="B10" s="166"/>
       <c r="C10" s="147"/>
@@ -44789,10 +44810,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="152" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="F10" s="147" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="G10" s="147"/>
       <c r="H10" s="167"/>
@@ -44817,10 +44838,10 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="150" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="B11" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C11" s="160">
         <v>19.95</v>
@@ -44829,15 +44850,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="152" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="F11" s="169" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="G11" s="147"/>
       <c r="H11" s="147"/>
       <c r="I11" s="169" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="J11" s="147"/>
       <c r="K11" s="147"/>
@@ -44859,10 +44880,10 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="150" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="B12" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C12" s="160">
         <v>19.95</v>
@@ -44871,15 +44892,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="F12" s="169" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="G12" s="147"/>
       <c r="H12" s="147"/>
       <c r="I12" s="169" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="J12" s="147"/>
       <c r="K12" s="147"/>
@@ -44901,10 +44922,10 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="150" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="B13" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C13" s="156">
         <v>37.9</v>
@@ -44913,10 +44934,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="152" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="F13" s="169" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="G13" s="147"/>
       <c r="H13" s="147"/>
@@ -44941,10 +44962,10 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="150" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="B14" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C14" s="156">
         <v>29.9</v>
@@ -44957,14 +44978,14 @@
         <v>https://www.amazon.de/Raspberry-Pi-v2-1-1080P-Kamera-Modul/dp/B01ER2SMHY/ref=sr_1_4?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1LUZK9XHFS5CX&amp;keywords=raspberry+pi+camera+v2.1&amp;qid=1565008837&amp;s=gateway&amp;sprefix=raspberry+pi+camera+%2Caps%2C163&amp;sr=8-4</v>
       </c>
       <c r="F14" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G14" s="152" t="str">
         <f>HYPERLINK("https://www.reichelt.de/raspberry-pi-kamera-8mp-ir-v2-imx219pq-rasp-can-2-p170857.html?&amp;trstct=pos_2","https://www.reichelt.de/raspberry-pi-kamera-8mp-ir-v2-imx219pq-rasp-can-2-p170857.html?&amp;trstct=pos_2")</f>
         <v>https://www.reichelt.de/raspberry-pi-kamera-8mp-ir-v2-imx219pq-rasp-can-2-p170857.html?&amp;trstct=pos_2</v>
       </c>
       <c r="H14" s="169" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="I14" s="147"/>
       <c r="J14" s="147"/>
@@ -44987,10 +45008,10 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="154" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="B15" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C15" s="147"/>
       <c r="D15" s="156">
@@ -45001,17 +45022,17 @@
         <v>https://www.amazon.de/gp/product/B075JN61S7/ref=ox_sc_act_title_2?smid=A1X7QLRQH87QA3&amp;psc=1</v>
       </c>
       <c r="F15" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G15" s="152" t="str">
         <f>HYPERLINK("https://www.az-delivery.de/collections/raspberry-pi-kamera-zubehor/products/100cmflexkabel?ls=de","https://www.az-delivery.de/collections/raspberry-pi-kamera-zubehor/products/100cmflexkabel?ls=de")</f>
         <v>https://www.az-delivery.de/collections/raspberry-pi-kamera-zubehor/products/100cmflexkabel?ls=de</v>
       </c>
       <c r="H15" s="147" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="I15" s="169" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="J15" s="147"/>
       <c r="K15" s="147"/>
@@ -45033,10 +45054,10 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="150" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="B16" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C16" s="156">
         <v>64.5</v>
@@ -45049,13 +45070,13 @@
         <v>https://www.amazon.de/Raspberry-Pi-7-Inch-Screen-Display/dp/B014WKCFR4/ref=sr_1_fkmrnull_3?__mk_de_DE=ÅMÅŽÕÑ&amp;keywords=raspi+7"+tft&amp;qid=1555581857&amp;s=gateway&amp;sr=8-3-fkmrnull</v>
       </c>
       <c r="F16" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G16" s="152" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="H16" s="147" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="I16" s="147"/>
       <c r="J16" s="147"/>
@@ -45078,10 +45099,10 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="150" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="B17" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C17" s="156">
         <v>17.8</v>
@@ -45090,16 +45111,16 @@
         <v>1</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="F17" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="H17" s="169" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="I17" s="147"/>
       <c r="J17" s="147"/>
@@ -45122,10 +45143,10 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="150" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="B18" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C18" s="156">
         <v>8.5500000000000007</v>
@@ -45134,10 +45155,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="152" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="F18" s="169" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="G18" s="147"/>
       <c r="H18" s="147"/>
@@ -45162,10 +45183,10 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="161" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="B19" s="162" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C19" s="147"/>
       <c r="D19" s="156">
@@ -45176,10 +45197,10 @@
         <v>https://www.amazon.de/BisLinks%C2%AE-Facing-Kamera-Ersatz-Repair/dp/B01M9K9RVN/ref=sr_1_10?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=lg+g3+camera&amp;qid=1565005739&amp;s=gateway&amp;sr=8-10</v>
       </c>
       <c r="F19" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G19" s="147" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
       <c r="H19" s="147"/>
       <c r="I19" s="147"/>
@@ -45203,10 +45224,10 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="150" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="B20" s="151" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="C20" s="156"/>
       <c r="D20" s="156">
@@ -45217,17 +45238,17 @@
         <v>https://www.amazon.de/AZDelivery-NodeMCU-Development-Nachfolgermodell-ESP8266/dp/B074RGW2VQ/ref=sr_1_3?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=esp32&amp;qid=1565008313&amp;s=gateway&amp;sr=8-3</v>
       </c>
       <c r="F20" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G20" s="152" t="str">
         <f>HYPERLINK("https://www.az-delivery.de/products/esp32-developmentboard?ls=de","https://www.az-delivery.de/products/esp32-developmentboard?ls=de")</f>
         <v>https://www.az-delivery.de/products/esp32-developmentboard?ls=de</v>
       </c>
       <c r="H20" s="147" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="I20" s="147" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="J20" s="147"/>
       <c r="K20" s="147"/>
@@ -45249,25 +45270,25 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="171" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="B21" s="172" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="156">
         <v>1</v>
       </c>
       <c r="E21" s="152" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F21" s="169" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="G21" s="147"/>
       <c r="H21" s="147"/>
       <c r="I21" s="171" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="J21" s="174"/>
       <c r="K21" s="147"/>
@@ -45289,10 +45310,10 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="150" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="B22" s="151" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="C22" s="156"/>
       <c r="D22" s="156">
@@ -45303,17 +45324,17 @@
         <v>https://www.amazon.de/AZDelivery-Matrix-CJMCU-8-Arduino-Raspberry/dp/B078HYP681/ref=sr_1_2?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=neopixel+matrix&amp;qid=1565008576&amp;s=gateway&amp;sr=8-2</v>
       </c>
       <c r="F22" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G22" s="152" t="str">
         <f>HYPERLINK("https://www.az-delivery.de/products/u-64-led-panel?ls=de","https://www.az-delivery.de/products/u-64-led-panel?ls=de")</f>
         <v>https://www.az-delivery.de/products/u-64-led-panel?ls=de</v>
       </c>
       <c r="H22" s="147" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="I22" s="153" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="J22" s="175"/>
       <c r="K22" s="147"/>
@@ -45335,10 +45356,10 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="147" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="B23" s="176" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C23" s="156"/>
       <c r="D23" s="156">
@@ -45349,17 +45370,17 @@
         <v>https://www.ebay.de/itm/Hi-Power-LED-1W-3W-UV-STAR-Ultraviolet-/131326525056?var=</v>
       </c>
       <c r="F23" s="169" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="G23" s="152" t="str">
         <f>HYPERLINK("https://avonec.de/3w-high-power-led/3w-high-power-led-10000k-20000k-kaltweiss-46-47-48.html","https://avonec.de/3w-high-power-led/3w-high-power-led-10000k-20000k-kaltweiss-46-47-48.html")</f>
         <v>https://avonec.de/3w-high-power-led/3w-high-power-led-10000k-20000k-kaltweiss-46-47-48.html</v>
       </c>
       <c r="H23" s="147" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="I23" s="147" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="J23" s="177"/>
       <c r="K23" s="147"/>
@@ -45381,10 +45402,10 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="154" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C24" s="156"/>
       <c r="D24" s="156">
@@ -45395,17 +45416,17 @@
         <v>https://www.ebay.de/itm/BD809-Transistor-npn-80V-10A-90W-TO220/360661360188?hash=item53f9179e3c:g:ssEAAOSw-fNaqt1l</v>
       </c>
       <c r="F24" s="169" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="G24" s="152" t="str">
         <f>HYPERLINK("https://www.reichelt.de/index.html?ACTION=446&amp;LA=446&amp;q=bd809%20transistor%20npn%2080v%2010a%2090w%20to220","https://www.reichelt.de/index.html?ACTION=446&amp;LA=446&amp;q=bd809%20transistor%20npn%2080v%2010a%2090w%20to220")</f>
         <v>https://www.reichelt.de/index.html?ACTION=446&amp;LA=446&amp;q=bd809%20transistor%20npn%2080v%2010a%2090w%20to220</v>
       </c>
       <c r="H24" s="169" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="I24" s="171" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="J24" s="147"/>
       <c r="K24" s="147"/>
@@ -45427,10 +45448,10 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="154" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="B25" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C25" s="156"/>
       <c r="D25" s="156">
@@ -45441,16 +45462,16 @@
         <v>https://www.amazon.de/Elegoo-Stepper-Schrittmotor-28BYJ-48-Treiberplatine/dp/B01MEGIHLF/ref=sr_1_1_sspa?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=stepper+arduino&amp;qid=1565008205&amp;s=gateway&amp;sr=8-1-spons&amp;psc=1</v>
       </c>
       <c r="F25" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G25" s="152" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="H25" s="169" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="I25" s="171" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="J25" s="147"/>
       <c r="K25" s="147"/>
@@ -45472,10 +45493,10 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="150" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="B26" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C26" s="147"/>
       <c r="D26" s="156">
@@ -45486,12 +45507,12 @@
         <v>https://eshop.wuerth.de/Zylinderschraube-mit-Innensechskant-SHR-ZYL-ISO4762-88-IS25-A2K-M3X8/00843%20%208.sku/de/DE/EUR/</v>
       </c>
       <c r="F26" s="147" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="G26" s="147"/>
       <c r="H26" s="147"/>
       <c r="I26" s="178" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="J26" s="147"/>
       <c r="K26" s="178"/>
@@ -45513,10 +45534,10 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="150" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="B27" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C27" s="147"/>
       <c r="D27" s="156">
@@ -45527,12 +45548,12 @@
         <v>https://eshop.wuerth.de/Zylinderschraube-mit-Innensechskant-SHR-ZYL-ISO4762-88-IS25-A2K-M3X12/00843%20%2012.sku/de/DE/EUR/</v>
       </c>
       <c r="F27" s="147" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="G27" s="147"/>
       <c r="H27" s="147"/>
       <c r="I27" s="178" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="J27" s="147"/>
       <c r="K27" s="147"/>
@@ -45554,10 +45575,10 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="161" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="B28" s="162" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C28" s="147"/>
       <c r="D28" s="156">
@@ -45568,12 +45589,12 @@
         <v>https://eshop.wuerth.de/Zylinderschraube-mit-Innensechskant-SHR-ZYL-ISO4762-88-IS25-A2K-M3X18/00843%20%2018.sku/de/DE/EUR/</v>
       </c>
       <c r="F28" s="147" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="G28" s="147"/>
       <c r="H28" s="147"/>
       <c r="I28" s="179" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="J28" s="178"/>
       <c r="K28" s="147"/>
@@ -45595,10 +45616,10 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="150" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="B29" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C29" s="180">
         <v>0.36</v>
@@ -45611,16 +45632,16 @@
         <v>https://www.ebay.de/itm/216-Neodym-Kugelmagnete-D5mm-D7mm-D10mm-GOLD-SILVER-BLACK-NICKEL-NdFeB/372719170845?hash=item56c7cb351d:m:mj8zDp5AN1PxzUDiyJu1Rsg</v>
       </c>
       <c r="F29" s="147" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="G29" s="152" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="H29" s="147" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="I29" s="179" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="J29" s="181"/>
       <c r="K29" s="178"/>
@@ -45642,10 +45663,10 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="161" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="B30" s="162" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C30" s="147"/>
       <c r="D30" s="156">
@@ -45656,7 +45677,7 @@
         <v>https://eshop.wuerth.de/Gewindestift-Innensechskant-und-Kegelstumpf-STI-STMPF-ISO4026-45H-IS15-A2K-M3X25/025503%2025.sku/WuerthGroup-Wuerth.cgid/de/DE/EUR/?VisibleSearchTerm=STI-STMPF-ISO4026-45H-IS1%2C5-%28A2K%29-M3X25&amp;CampaignName=SR001</v>
       </c>
       <c r="F30" s="147" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="G30" s="147"/>
       <c r="H30" s="147"/>
@@ -45681,20 +45702,20 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="161" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="B31" s="162" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C31" s="147"/>
       <c r="D31" s="147">
         <v>1</v>
       </c>
       <c r="E31" s="152" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="F31" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G31" s="147"/>
       <c r="H31" s="147"/>
@@ -45719,26 +45740,26 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="150" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="B32" s="151" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C32" s="147"/>
       <c r="D32" s="147">
         <v>1</v>
       </c>
       <c r="E32" s="152" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="F32" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G32" s="182" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="H32" s="147" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="I32" s="147"/>
       <c r="J32" s="147"/>
@@ -45761,22 +45782,22 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="169" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="B33" s="183" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="C33" s="169"/>
       <c r="D33" s="147"/>
       <c r="E33" s="147"/>
       <c r="F33" s="169" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="G33" s="147"/>
       <c r="H33" s="147"/>
       <c r="I33" s="147"/>
       <c r="J33" s="184" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="K33" s="147"/>
       <c r="L33" s="147"/>
@@ -45797,30 +45818,30 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="147" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="B34" s="176" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C34" s="147"/>
       <c r="D34" s="156">
         <v>3</v>
       </c>
       <c r="E34" s="152" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="F34" s="147" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G34" s="147"/>
       <c r="H34" s="147"/>
       <c r="I34" s="147" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="J34" s="181"/>
       <c r="K34" s="147"/>
       <c r="L34" s="185" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="M34" s="147"/>
       <c r="N34" s="149"/>
@@ -45839,24 +45860,24 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="179" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="B35" s="172" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C35" s="147"/>
       <c r="D35" s="147"/>
       <c r="E35" s="186" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="F35" s="147" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="G35" s="182" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="H35" s="147" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="I35" s="147"/>
       <c r="J35" s="147"/>
@@ -45879,25 +45900,25 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="154" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="B36" s="187" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C36" s="147"/>
       <c r="D36" s="156">
         <v>1</v>
       </c>
       <c r="E36" s="186" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F36" s="147" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="G36" s="147"/>
       <c r="H36" s="147"/>
       <c r="I36" s="179" t="s">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="J36" s="181"/>
       <c r="K36" s="147"/>
@@ -45919,10 +45940,10 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="161" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="B37" s="162" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C37" s="147"/>
       <c r="D37" s="156">
@@ -45953,10 +45974,10 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="161" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="B38" s="162" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C38" s="147"/>
       <c r="D38" s="156">
@@ -45987,7 +46008,7 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="147" t="s">
-        <v>631</v>
+        <v>599</v>
       </c>
       <c r="B39" s="188"/>
       <c r="C39" s="147"/>
@@ -46019,7 +46040,7 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="190" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="B40" s="156"/>
       <c r="C40" s="147"/>

--- a/DOCUMENTS/UC2-Configurator/UC2_ReadyToUse_Boxes_Modules_Parts.xlsx
+++ b/DOCUMENTS/UC2-Configurator/UC2_ReadyToUse_Boxes_Modules_Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bene/Dropbox/Dokumente/Promotion/PROJECTS/UC2-GIT/DOCUMENTS/UC2-Configurator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F465551-CFF3-F84B-9BA2-C39E3E5A2CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A0E37A-A4BA-C14B-A073-C6ADC5A6A60E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete overview" sheetId="1" r:id="rId1"/>
@@ -731,19 +731,10 @@
     <t>30_Z_Stage_Adapterplate</t>
   </si>
   <si>
-    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_v2/STL/30_Z_Stage_Adapterplate_11.stl</t>
-  </si>
-  <si>
     <t>30_Z_Stage_Fluomodule</t>
   </si>
   <si>
-    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_v2/STL/30_Z_Stage_Fluomodule_12.stl</t>
-  </si>
-  <si>
     <t>40_XY_Stage_Clamp_Slide</t>
-  </si>
-  <si>
-    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_v2/STL/40_XY_Stage_Clamp_Slide_9.stl</t>
   </si>
   <si>
     <t>ASSEMBLY_CUBE_Z-stage_mechanical</t>
@@ -752,43 +743,19 @@
     <t>https://github.com/bionanoimaging/UC2-GIT/tree/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2</t>
   </si>
   <si>
-    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_10_Cube_2x1_v2_5.stl</t>
-  </si>
-  <si>
-    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_10_Lid_el_2x1_v2_6.stl</t>
-  </si>
-  <si>
     <t xml:space="preserve">The linearflexure mechanism of the Z-stage is used for precise focussing of the microscope objective. Mechanical only. </t>
-  </si>
-  <si>
-    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_20_focus_inlet_linearflexure_v0_1.stl</t>
-  </si>
-  <si>
-    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_30_focus_inlet_objective_mount_v7_7.stl</t>
   </si>
   <si>
     <t>20_focus_inlet_plate_bottom</t>
   </si>
   <si>
-    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_20_focus_inlet_plate_bottom_2.stl</t>
-  </si>
-  <si>
     <t>20_focus_inlet_plate_top</t>
-  </si>
-  <si>
-    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_20_focus_inlet_plate_top_3.stl</t>
   </si>
   <si>
     <t>00_large_gear</t>
   </si>
   <si>
-    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_00_large_gear_4.stl</t>
-  </si>
-  <si>
     <t>30_Z_Stage_Sampleplate</t>
-  </si>
-  <si>
-    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_30_Z_Stage_Sampleplate_8.stl</t>
   </si>
   <si>
     <t>ASSEMBLY_CUBE_Circular_Aperture</t>
@@ -1963,6 +1930,39 @@
   <si>
     <t>ASSEMBLY_Baseplate 4x11</t>
   </si>
+  <si>
+    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_v2/STL/30_Z_Stage_Adapterplate.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_v2/STL/30_Z_Stage_Fluomodule.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_v2/STL/40_XY_Stage_Clamp_Slide.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_10_Cube_2x1_v2.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_10_Lid_el_2x1_v2.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_20_focus_inlet_linearflexure_v0.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_30_focus_inlet_objective_mount_v7.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_20_focus_inlet_plate_bottom.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_20_focus_inlet_plate_top.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_00_large_gear.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/bionanoimaging/UC2-GIT/blob/master/CAD/ASSEMBLY_CUBE_Z-STAGE_mechanical_v2/STL/Assembly_Z-Focus_Linearbearing_mechanical_v0_30_Z_Stage_Sampleplate.stl</t>
+  </si>
 </sst>
 </file>
 
@@ -2701,7 +2701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3017,6 +3017,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3342,7 +3343,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -3408,40 +3409,40 @@
         <v>5</v>
       </c>
       <c r="K2" s="191" t="s">
+        <v>590</v>
+      </c>
+      <c r="L2" s="191" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" s="192" t="s">
+        <v>592</v>
+      </c>
+      <c r="N2" s="192" t="s">
+        <v>593</v>
+      </c>
+      <c r="O2" s="191" t="s">
+        <v>594</v>
+      </c>
+      <c r="P2" s="191" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q2" s="191" t="s">
+        <v>596</v>
+      </c>
+      <c r="R2" s="191" t="s">
+        <v>597</v>
+      </c>
+      <c r="S2" s="191" t="s">
+        <v>598</v>
+      </c>
+      <c r="T2" s="191" t="s">
+        <v>599</v>
+      </c>
+      <c r="U2" s="191" t="s">
+        <v>600</v>
+      </c>
+      <c r="V2" s="191" t="s">
         <v>601</v>
-      </c>
-      <c r="L2" s="191" t="s">
-        <v>602</v>
-      </c>
-      <c r="M2" s="192" t="s">
-        <v>603</v>
-      </c>
-      <c r="N2" s="192" t="s">
-        <v>604</v>
-      </c>
-      <c r="O2" s="191" t="s">
-        <v>605</v>
-      </c>
-      <c r="P2" s="191" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q2" s="191" t="s">
-        <v>607</v>
-      </c>
-      <c r="R2" s="191" t="s">
-        <v>608</v>
-      </c>
-      <c r="S2" s="191" t="s">
-        <v>609</v>
-      </c>
-      <c r="T2" s="191" t="s">
-        <v>610</v>
-      </c>
-      <c r="U2" s="191" t="s">
-        <v>611</v>
-      </c>
-      <c r="V2" s="191" t="s">
-        <v>612</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -3725,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -3792,7 +3793,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -3874,7 +3875,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -3941,7 +3942,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D11" s="26">
         <v>1</v>
@@ -4023,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -4090,7 +4091,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="D14" s="26">
         <v>1</v>
@@ -4172,7 +4173,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4320,7 +4321,7 @@
       <c r="A19" s="54"/>
       <c r="B19" s="55"/>
       <c r="C19" s="25" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D19" s="50">
         <v>0</v>
@@ -4359,7 +4360,7 @@
       <c r="A20" s="54"/>
       <c r="B20" s="57"/>
       <c r="C20" s="58" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D20" s="59">
         <v>0</v>
@@ -4466,7 +4467,7 @@
         <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D22" s="50"/>
       <c r="E22" s="50">
@@ -4733,7 +4734,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="50">
@@ -4922,7 +4923,7 @@
         <v>95</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="50">
@@ -5043,7 +5044,7 @@
       <c r="A35" s="54"/>
       <c r="B35" s="57"/>
       <c r="C35" s="64" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="D35" s="65">
         <v>0</v>
@@ -5228,10 +5229,10 @@
     <row r="39" spans="1:27" ht="16">
       <c r="A39" s="5"/>
       <c r="B39" s="63" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D39" s="50">
         <v>0</v>
@@ -5309,7 +5310,7 @@
       <c r="A41" s="54"/>
       <c r="B41" s="55"/>
       <c r="C41" s="25" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="D41" s="50">
         <v>0</v>
@@ -5533,7 +5534,7 @@
         <v>117</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D46" s="50"/>
       <c r="E46" s="50">
@@ -5954,7 +5955,7 @@
         <v>133</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D56" s="50"/>
       <c r="E56" s="50">
@@ -6114,7 +6115,7 @@
       <c r="A60" s="54"/>
       <c r="B60" s="57"/>
       <c r="C60" s="64" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D60" s="65">
         <v>0</v>
@@ -6221,7 +6222,7 @@
         <v>143</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D62" s="50"/>
       <c r="E62" s="50">
@@ -6410,7 +6411,7 @@
         <v>150</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D66" s="50"/>
       <c r="E66" s="50">
@@ -6638,7 +6639,7 @@
         <v>150</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D71" s="50"/>
       <c r="E71" s="50">
@@ -6866,7 +6867,7 @@
         <v>150</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D76" s="50"/>
       <c r="E76" s="50">
@@ -7027,7 +7028,7 @@
         <v>15</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -7094,7 +7095,7 @@
         <v>150</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D81" s="50"/>
       <c r="E81" s="50">
@@ -7174,7 +7175,7 @@
       <c r="A83" s="54"/>
       <c r="B83" s="57"/>
       <c r="C83" s="64" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="D83" s="65">
         <v>0</v>
@@ -7281,7 +7282,7 @@
         <v>150</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D85" s="50"/>
       <c r="E85" s="50">
@@ -7509,7 +7510,7 @@
         <v>170</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D90" s="50"/>
       <c r="E90" s="50">
@@ -7591,7 +7592,7 @@
         <v>173</v>
       </c>
       <c r="C92" s="64" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D92" s="65">
         <v>0</v>
@@ -7698,7 +7699,7 @@
         <v>176</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D94" s="50"/>
       <c r="E94" s="50">
@@ -7780,7 +7781,7 @@
         <v>179</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D96" s="50">
         <v>0</v>
@@ -7817,7 +7818,7 @@
       <c r="A97" s="54"/>
       <c r="B97" s="55"/>
       <c r="C97" s="25" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D97" s="50">
         <v>0</v>
@@ -7856,7 +7857,7 @@
       <c r="A98" s="54"/>
       <c r="B98" s="55"/>
       <c r="C98" s="25" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D98" s="50">
         <v>0</v>
@@ -8002,7 +8003,7 @@
         <v>182</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D101" s="50"/>
       <c r="E101" s="50">
@@ -8084,7 +8085,7 @@
         <v>185</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D103" s="50">
         <v>0</v>
@@ -8121,7 +8122,7 @@
       <c r="A104" s="54"/>
       <c r="B104" s="55"/>
       <c r="C104" s="25" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D104" s="50">
         <v>0</v>
@@ -8160,7 +8161,7 @@
       <c r="A105" s="54"/>
       <c r="B105" s="55"/>
       <c r="C105" s="25" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D105" s="50">
         <v>0</v>
@@ -8306,7 +8307,7 @@
         <v>187</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D108" s="50"/>
       <c r="E108" s="50">
@@ -8695,7 +8696,7 @@
       <c r="A117" s="54"/>
       <c r="B117" s="55"/>
       <c r="C117" s="25" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D117" s="50">
         <v>0</v>
@@ -8734,7 +8735,7 @@
       <c r="A118" s="54"/>
       <c r="B118" s="55"/>
       <c r="C118" s="25" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D118" s="50">
         <v>0</v>
@@ -8773,7 +8774,7 @@
       <c r="A119" s="54"/>
       <c r="B119" s="55"/>
       <c r="C119" s="25" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D119" s="50">
         <v>0</v>
@@ -9073,7 +9074,7 @@
         <v>209</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D126" s="50"/>
       <c r="E126" s="50">
@@ -9345,7 +9346,7 @@
         <v>218</v>
       </c>
       <c r="C132" s="64" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D132" s="65">
         <v>0</v>
@@ -9660,8 +9661,8 @@
       <c r="E139" s="50">
         <v>1</v>
       </c>
-      <c r="F139" s="27" t="s">
-        <v>232</v>
+      <c r="F139" s="197" t="s">
+        <v>623</v>
       </c>
       <c r="G139" s="51">
         <v>0.3</v>
@@ -9691,7 +9692,7 @@
       <c r="A140" s="54"/>
       <c r="B140" s="55"/>
       <c r="C140" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D140" s="50">
         <v>1</v>
@@ -9699,8 +9700,8 @@
       <c r="E140" s="50">
         <v>1</v>
       </c>
-      <c r="F140" s="27" t="s">
-        <v>234</v>
+      <c r="F140" s="197" t="s">
+        <v>624</v>
       </c>
       <c r="G140" s="51">
         <v>0.2</v>
@@ -9730,7 +9731,7 @@
       <c r="A141" s="54"/>
       <c r="B141" s="55"/>
       <c r="C141" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D141" s="50">
         <v>1</v>
@@ -9738,8 +9739,8 @@
       <c r="E141" s="50">
         <v>1</v>
       </c>
-      <c r="F141" s="27" t="s">
-        <v>236</v>
+      <c r="F141" s="197" t="s">
+        <v>625</v>
       </c>
       <c r="G141" s="51">
         <v>0.1</v>
@@ -9769,7 +9770,7 @@
       <c r="A142" s="54"/>
       <c r="B142" s="55"/>
       <c r="C142" s="25" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D142" s="50">
         <v>0</v>
@@ -9808,7 +9809,7 @@
       <c r="A143" s="54"/>
       <c r="B143" s="55"/>
       <c r="C143" s="25" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D143" s="50">
         <v>0</v>
@@ -9847,7 +9848,7 @@
       <c r="A144" s="54"/>
       <c r="B144" s="55"/>
       <c r="C144" s="25" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D144" s="50">
         <v>0</v>
@@ -9886,7 +9887,7 @@
       <c r="A145" s="54"/>
       <c r="B145" s="55"/>
       <c r="C145" s="25" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D145" s="50">
         <v>0</v>
@@ -9925,7 +9926,7 @@
       <c r="A146" s="54"/>
       <c r="B146" s="55"/>
       <c r="C146" s="25" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D146" s="50">
         <v>0</v>
@@ -10121,7 +10122,7 @@
         <v>25</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
@@ -10185,7 +10186,7 @@
     <row r="152" spans="1:27" ht="16">
       <c r="A152" s="48"/>
       <c r="B152" s="49" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C152" s="25" t="s">
         <v>221</v>
@@ -10196,8 +10197,8 @@
       <c r="E152" s="50">
         <v>1</v>
       </c>
-      <c r="F152" s="27" t="s">
-        <v>239</v>
+      <c r="F152" s="197" t="s">
+        <v>626</v>
       </c>
       <c r="G152" s="51">
         <v>0.5</v>
@@ -10238,8 +10239,8 @@
       <c r="E153" s="50">
         <v>1</v>
       </c>
-      <c r="F153" s="27" t="s">
-        <v>240</v>
+      <c r="F153" s="197" t="s">
+        <v>627</v>
       </c>
       <c r="G153" s="51">
         <v>0.3</v>
@@ -10268,7 +10269,7 @@
     <row r="154" spans="1:27" ht="16">
       <c r="A154" s="5"/>
       <c r="B154" s="63" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C154" s="25" t="s">
         <v>226</v>
@@ -10279,8 +10280,8 @@
       <c r="E154" s="50">
         <v>1</v>
       </c>
-      <c r="F154" s="27" t="s">
-        <v>242</v>
+      <c r="F154" s="197" t="s">
+        <v>628</v>
       </c>
       <c r="G154" s="51">
         <v>0.6</v>
@@ -10318,8 +10319,8 @@
       <c r="E155" s="50">
         <v>1</v>
       </c>
-      <c r="F155" s="27" t="s">
-        <v>243</v>
+      <c r="F155" s="197" t="s">
+        <v>629</v>
       </c>
       <c r="G155" s="51">
         <v>0.1</v>
@@ -10349,7 +10350,7 @@
       <c r="A156" s="54"/>
       <c r="B156" s="55"/>
       <c r="C156" s="81" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D156" s="50">
         <v>1</v>
@@ -10357,8 +10358,8 @@
       <c r="E156" s="50">
         <v>1</v>
       </c>
-      <c r="F156" s="27" t="s">
-        <v>245</v>
+      <c r="F156" s="197" t="s">
+        <v>630</v>
       </c>
       <c r="G156" s="51">
         <v>0.2</v>
@@ -10388,7 +10389,7 @@
       <c r="A157" s="54"/>
       <c r="B157" s="55"/>
       <c r="C157" s="81" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D157" s="50">
         <v>1</v>
@@ -10396,8 +10397,8 @@
       <c r="E157" s="50">
         <v>1</v>
       </c>
-      <c r="F157" s="27" t="s">
-        <v>247</v>
+      <c r="F157" s="197" t="s">
+        <v>631</v>
       </c>
       <c r="G157" s="51">
         <v>0.1</v>
@@ -10427,7 +10428,7 @@
       <c r="A158" s="54"/>
       <c r="B158" s="55"/>
       <c r="C158" s="81" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D158" s="50">
         <v>1</v>
@@ -10435,8 +10436,8 @@
       <c r="E158" s="50">
         <v>1</v>
       </c>
-      <c r="F158" s="27" t="s">
-        <v>249</v>
+      <c r="F158" s="197" t="s">
+        <v>632</v>
       </c>
       <c r="G158" s="51">
         <v>0.1</v>
@@ -10466,7 +10467,7 @@
       <c r="A159" s="54"/>
       <c r="B159" s="55"/>
       <c r="C159" s="81" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D159" s="50">
         <v>1</v>
@@ -10474,8 +10475,8 @@
       <c r="E159" s="50">
         <v>1</v>
       </c>
-      <c r="F159" s="27" t="s">
-        <v>251</v>
+      <c r="F159" s="197" t="s">
+        <v>633</v>
       </c>
       <c r="G159" s="51">
         <v>0.3</v>
@@ -10505,7 +10506,7 @@
       <c r="A160" s="54"/>
       <c r="B160" s="55"/>
       <c r="C160" s="25" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D160" s="50">
         <v>0</v>
@@ -10544,7 +10545,7 @@
       <c r="A161" s="54"/>
       <c r="B161" s="55"/>
       <c r="C161" s="25" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D161" s="50">
         <v>0</v>
@@ -10583,7 +10584,7 @@
       <c r="A162" s="54"/>
       <c r="B162" s="55"/>
       <c r="C162" s="25" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D162" s="50">
         <v>0</v>
@@ -10622,7 +10623,7 @@
       <c r="A163" s="54"/>
       <c r="B163" s="55"/>
       <c r="C163" s="25" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D163" s="50">
         <v>0</v>
@@ -10661,7 +10662,7 @@
       <c r="A164" s="54"/>
       <c r="B164" s="57"/>
       <c r="C164" s="64" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D164" s="65">
         <v>0</v>
@@ -10701,7 +10702,7 @@
         <v>26</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
@@ -10765,10 +10766,10 @@
     <row r="166" spans="1:27" ht="16">
       <c r="A166" s="23"/>
       <c r="B166" s="24" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D166" s="50"/>
       <c r="E166" s="50">
@@ -10809,7 +10810,7 @@
         <v>2.6</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D167" s="25">
         <v>1</v>
@@ -10818,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="84" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G167" s="51">
         <v>0.4</v>
@@ -10847,10 +10848,10 @@
     <row r="168" spans="1:27" ht="16">
       <c r="A168" s="85"/>
       <c r="B168" s="86" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D168" s="25">
         <v>1</v>
@@ -10859,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="84" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G168" s="51">
         <v>0</v>
@@ -10889,7 +10890,7 @@
       <c r="A169" s="11"/>
       <c r="B169" s="87"/>
       <c r="C169" s="25" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D169" s="25">
         <v>1</v>
@@ -10898,7 +10899,7 @@
         <v>7</v>
       </c>
       <c r="F169" s="84" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G169" s="51">
         <v>0</v>
@@ -10928,7 +10929,7 @@
       <c r="A170" s="11"/>
       <c r="B170" s="88"/>
       <c r="C170" s="64" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D170" s="64">
         <v>1</v>
@@ -10937,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="89" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G170" s="67">
         <v>0</v>
@@ -10968,7 +10969,7 @@
         <v>27</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C171" s="90"/>
       <c r="D171" s="90"/>
@@ -11032,14 +11033,14 @@
     <row r="172" spans="1:27" ht="16">
       <c r="A172" s="34"/>
       <c r="C172" s="25" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D172" s="50"/>
       <c r="E172" s="50">
         <v>1</v>
       </c>
       <c r="F172" s="56" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G172" s="51">
         <v>40</v>
@@ -11048,7 +11049,7 @@
       <c r="I172" s="29"/>
       <c r="J172" s="30"/>
       <c r="K172" s="5" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L172" s="29"/>
       <c r="M172" s="29"/>
@@ -11074,14 +11075,14 @@
         <v>187.8</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D173" s="50"/>
       <c r="E173" s="50">
         <v>1</v>
       </c>
       <c r="F173" s="56" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G173" s="51">
         <v>64.5</v>
@@ -11111,14 +11112,14 @@
       <c r="A174" s="54"/>
       <c r="B174" s="55"/>
       <c r="C174" s="25" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D174" s="50"/>
       <c r="E174" s="50">
         <v>1</v>
       </c>
       <c r="F174" s="56" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G174" s="51">
         <v>22.3</v>
@@ -11148,14 +11149,14 @@
       <c r="A175" s="54"/>
       <c r="B175" s="55"/>
       <c r="C175" s="25" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D175" s="50"/>
       <c r="E175" s="50">
         <v>1</v>
       </c>
       <c r="F175" s="56" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G175" s="51">
         <v>9.5</v>
@@ -11185,14 +11186,14 @@
       <c r="A176" s="54"/>
       <c r="B176" s="55"/>
       <c r="C176" s="25" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D176" s="50"/>
       <c r="E176" s="50">
         <v>1</v>
       </c>
       <c r="F176" s="56" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="G176" s="51">
         <v>11</v>
@@ -11222,14 +11223,14 @@
       <c r="A177" s="54"/>
       <c r="B177" s="55"/>
       <c r="C177" s="25" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D177" s="50"/>
       <c r="E177" s="50">
         <v>1</v>
       </c>
       <c r="F177" s="56" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G177" s="51">
         <v>27</v>
@@ -11259,14 +11260,14 @@
       <c r="A178" s="54"/>
       <c r="B178" s="57"/>
       <c r="C178" s="64" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D178" s="65"/>
       <c r="E178" s="65">
         <v>1</v>
       </c>
       <c r="F178" s="66" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G178" s="67">
         <v>13.5</v>
@@ -11297,7 +11298,7 @@
         <v>28</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C179" s="90"/>
       <c r="D179" s="90"/>
@@ -11328,7 +11329,7 @@
     <row r="180" spans="1:27" ht="16">
       <c r="A180" s="43"/>
       <c r="B180" s="93" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C180" s="94"/>
       <c r="D180" s="50"/>
@@ -11336,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="56" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G180" s="95">
         <v>7</v>
@@ -11395,7 +11396,7 @@
     <row r="181" spans="1:27" ht="16">
       <c r="A181" s="43"/>
       <c r="B181" s="93" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C181" s="94"/>
       <c r="D181" s="50"/>
@@ -11403,7 +11404,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="56" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G181" s="95">
         <v>13.1</v>
@@ -11462,7 +11463,7 @@
     <row r="182" spans="1:27" ht="16">
       <c r="A182" s="96"/>
       <c r="B182" s="97" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C182" s="94"/>
       <c r="D182" s="98"/>
@@ -11470,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="27" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G182" s="99">
         <v>0</v>
@@ -11529,7 +11530,7 @@
     <row r="183" spans="1:27" ht="16">
       <c r="A183" s="96"/>
       <c r="B183" s="97" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C183" s="94"/>
       <c r="D183" s="98"/>
@@ -11594,7 +11595,7 @@
     <row r="184" spans="1:27" ht="16">
       <c r="A184" s="96"/>
       <c r="B184" s="103" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C184" s="104"/>
       <c r="D184" s="105"/>
@@ -35709,18 +35710,18 @@
     <row r="1" spans="3:25" ht="15.75" customHeight="1"/>
     <row r="2" spans="3:25" ht="15.75" customHeight="1">
       <c r="C2" s="109" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="3:25" ht="15.75" customHeight="1"/>
     <row r="4" spans="3:25" ht="15.75" customHeight="1">
       <c r="C4" s="110" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="3:25" ht="15.75" customHeight="1">
       <c r="C5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="3:25" ht="15.75" customHeight="1"/>
@@ -35728,28 +35729,28 @@
     <row r="8" spans="3:25" ht="15.75" customHeight="1"/>
     <row r="9" spans="3:25" ht="15.75" customHeight="1">
       <c r="C9" s="111" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="3:25" ht="15.75" customHeight="1">
       <c r="C10" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="3:25" ht="15.75" customHeight="1">
       <c r="C11" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="3:25" ht="15.75" customHeight="1">
       <c r="C12" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="3:25" ht="15.75" customHeight="1"/>
     <row r="14" spans="3:25" ht="15.75" customHeight="1">
       <c r="E14" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -35766,7 +35767,7 @@
     </row>
     <row r="15" spans="3:25" ht="15.75" customHeight="1">
       <c r="E15" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -35795,7 +35796,7 @@
     </row>
     <row r="16" spans="3:25" ht="15.75" customHeight="1">
       <c r="E16" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -35835,7 +35836,7 @@
     </row>
     <row r="17" spans="4:25" ht="15.75" customHeight="1">
       <c r="E17" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -35869,64 +35870,64 @@
         <v>56</v>
       </c>
       <c r="G18" s="114" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="I18" s="115" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" s="115" t="s">
+        <v>291</v>
+      </c>
+      <c r="K18" s="115" t="s">
+        <v>292</v>
+      </c>
+      <c r="L18" s="115" t="s">
+        <v>293</v>
+      </c>
+      <c r="M18" s="115" t="s">
+        <v>294</v>
+      </c>
+      <c r="N18" s="115" t="s">
+        <v>295</v>
+      </c>
+      <c r="O18" s="115" t="s">
+        <v>296</v>
+      </c>
+      <c r="P18" s="115" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q18" s="115" t="s">
+        <v>298</v>
+      </c>
+      <c r="R18" s="115" t="s">
         <v>299</v>
       </c>
-      <c r="H18" s="115" t="s">
+      <c r="S18" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="I18" s="115" t="s">
+      <c r="T18" s="115" t="s">
         <v>301</v>
       </c>
-      <c r="J18" s="115" t="s">
+      <c r="U18" s="115" t="s">
         <v>302</v>
       </c>
-      <c r="K18" s="115" t="s">
+      <c r="V18" s="115" t="s">
         <v>303</v>
       </c>
-      <c r="L18" s="115" t="s">
+      <c r="W18" s="115" t="s">
         <v>304</v>
       </c>
-      <c r="M18" s="115" t="s">
+      <c r="X18" s="112" t="s">
         <v>305</v>
-      </c>
-      <c r="N18" s="115" t="s">
-        <v>306</v>
-      </c>
-      <c r="O18" s="115" t="s">
-        <v>307</v>
-      </c>
-      <c r="P18" s="115" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q18" s="115" t="s">
-        <v>309</v>
-      </c>
-      <c r="R18" s="115" t="s">
-        <v>310</v>
-      </c>
-      <c r="S18" s="115" t="s">
-        <v>311</v>
-      </c>
-      <c r="T18" s="115" t="s">
-        <v>312</v>
-      </c>
-      <c r="U18" s="115" t="s">
-        <v>313</v>
-      </c>
-      <c r="V18" s="115" t="s">
-        <v>314</v>
-      </c>
-      <c r="W18" s="115" t="s">
-        <v>315</v>
-      </c>
-      <c r="X18" s="112" t="s">
-        <v>316</v>
       </c>
       <c r="Y18" s="112"/>
     </row>
     <row r="19" spans="4:25" ht="15.75" customHeight="1">
       <c r="E19" s="116" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="117"/>
@@ -35952,11 +35953,11 @@
         <v>1</v>
       </c>
       <c r="E20" s="118" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="117" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="H20" s="117">
         <v>1</v>
@@ -35994,11 +35995,11 @@
         <v>2</v>
       </c>
       <c r="E21" s="118" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F21" s="117"/>
       <c r="G21" s="117" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="H21" s="117"/>
       <c r="I21" s="117">
@@ -36024,11 +36025,11 @@
         <v>3</v>
       </c>
       <c r="E22" s="118" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F22" s="117"/>
       <c r="G22" s="117" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
@@ -36066,11 +36067,11 @@
         <v>4</v>
       </c>
       <c r="E23" s="118" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F23" s="117"/>
       <c r="G23" s="117" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H23" s="117"/>
       <c r="I23" s="117"/>
@@ -36106,11 +36107,11 @@
         <v>5</v>
       </c>
       <c r="E24" s="118" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F24" s="117"/>
       <c r="G24" s="117" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="H24" s="117"/>
       <c r="I24" s="117"/>
@@ -36133,7 +36134,7 @@
       <c r="V24" s="117"/>
       <c r="W24" s="117"/>
       <c r="X24" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="4:25" ht="15.75" customHeight="1">
@@ -36141,11 +36142,11 @@
         <v>6</v>
       </c>
       <c r="E25" s="118" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F25" s="117"/>
       <c r="G25" s="117" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="H25" s="117"/>
       <c r="I25" s="117">
@@ -36171,11 +36172,11 @@
         <v>7</v>
       </c>
       <c r="E26" s="118" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F26" s="117"/>
       <c r="G26" s="117" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H26" s="117"/>
       <c r="I26" s="117">
@@ -36204,7 +36205,7 @@
       <c r="V26" s="117"/>
       <c r="W26" s="117"/>
       <c r="X26" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="4:25" ht="15.75" customHeight="1">
@@ -36216,7 +36217,7 @@
       </c>
       <c r="F27" s="117"/>
       <c r="G27" s="117" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H27" s="117"/>
       <c r="I27" s="117">
@@ -36243,7 +36244,7 @@
         <v>1</v>
       </c>
       <c r="X27" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="4:25" ht="15.75" customHeight="1">
@@ -36251,11 +36252,11 @@
         <v>9</v>
       </c>
       <c r="E28" s="118" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F28" s="117"/>
       <c r="G28" s="117" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="H28" s="117">
         <v>1</v>
@@ -36285,7 +36286,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="119" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F29" s="117"/>
       <c r="G29" s="117"/>
@@ -37367,7 +37368,7 @@
   <sheetData>
     <row r="1" spans="2:57" ht="15.75" customHeight="1">
       <c r="B1" s="48" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AD1" s="48"/>
       <c r="AE1" s="48"/>
@@ -37384,14 +37385,14 @@
       <c r="AN1" s="48"/>
       <c r="AO1" s="48"/>
       <c r="AP1" s="48" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AQ1" s="48" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AR1" s="48"/>
       <c r="AS1" s="48" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="AT1" s="48"/>
       <c r="AU1" s="48"/>
@@ -37403,101 +37404,101 @@
       <c r="BA1" s="48"/>
       <c r="BB1" s="48"/>
       <c r="BC1" s="48" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="BD1" s="48" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="2:57" ht="15.75" customHeight="1">
       <c r="B2" s="48" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AD2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AE2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AF2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AG2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AH2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AI2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AJ2" s="48" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="AK2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AL2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AM2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AN2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AO2" s="48" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AP2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AQ2" s="48" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AR2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AS2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AT2" s="48" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AU2" s="48" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AV2" s="48" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AW2" s="48" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AX2" s="48" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AY2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AZ2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="BA2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="BB2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="BC2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="BD2" s="48" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="2:57" ht="15.75" customHeight="1">
       <c r="B3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -37689,67 +37690,67 @@
       <c r="AB4" s="120"/>
       <c r="AC4" s="120"/>
       <c r="AD4" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AE4" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AF4" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AG4" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AH4" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AI4" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AJ4" s="48" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AK4" s="123" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AL4" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AM4" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AN4" s="48" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AO4" s="48" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AP4" s="48" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="AQ4" s="48" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AR4" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AS4" s="48" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AT4" s="48" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AU4" s="48" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AV4" s="48" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AW4" s="48" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AX4" s="48" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AY4" s="48"/>
       <c r="AZ4" s="48"/>
@@ -37760,7 +37761,7 @@
     </row>
     <row r="5" spans="2:57" ht="15.75" customHeight="1">
       <c r="B5" s="120" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C5" s="120"/>
       <c r="D5" s="121"/>
@@ -37793,10 +37794,10 @@
         <v>140</v>
       </c>
       <c r="AE5" s="69" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="AF5" s="127" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AG5" s="69" t="s">
         <v>180</v>
@@ -37811,7 +37812,7 @@
         <v>126</v>
       </c>
       <c r="AK5" s="123" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AL5" s="69" t="s">
         <v>109</v>
@@ -37820,22 +37821,22 @@
         <v>111</v>
       </c>
       <c r="AN5" s="69" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="AO5" s="69" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="AP5" s="69" t="s">
         <v>101</v>
       </c>
       <c r="AQ5" s="69" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="AR5" s="69" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="AS5" s="69" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="AT5" s="69" t="s">
         <v>74</v>
@@ -37847,10 +37848,10 @@
         <v>141</v>
       </c>
       <c r="AW5" s="69" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AX5" s="69" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="AY5" s="69" t="s">
         <v>108</v>
@@ -37859,164 +37860,164 @@
         <v>108</v>
       </c>
       <c r="BA5" s="69" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="BB5" s="69" t="s">
         <v>93</v>
       </c>
       <c r="BC5" s="124" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="BD5" s="124" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="2:57" ht="15.75" customHeight="1">
       <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE6" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG6" s="129" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH6" s="130" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI6" s="130" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ6" s="130" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK6" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM6" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="D6" t="s">
+      <c r="AN6" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AO6" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="AE6" s="48" t="s">
+      <c r="AP6" t="s">
         <v>364</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AQ6" t="s">
         <v>365</v>
       </c>
-      <c r="AG6" s="129" t="s">
+      <c r="AR6" s="129" t="s">
         <v>366</v>
       </c>
-      <c r="AH6" s="130" t="s">
+      <c r="AS6" t="s">
         <v>367</v>
       </c>
-      <c r="AI6" s="130" t="s">
+      <c r="AT6" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="AJ6" s="130" t="s">
+      <c r="AU6" s="48" t="s">
         <v>369</v>
       </c>
-      <c r="AK6" s="48" t="s">
+      <c r="AV6" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AW6" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="AM6" s="48" t="s">
+      <c r="AX6" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="AY6" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="AN6" s="48" t="s">
+      <c r="AZ6" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA6" s="48" t="s">
         <v>373</v>
       </c>
-      <c r="AO6" s="48" t="s">
+      <c r="BB6" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="BC6" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="BD6" s="48" t="s">
         <v>376</v>
-      </c>
-      <c r="AR6" s="129" t="s">
-        <v>377</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AT6" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="AU6" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="AV6" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="AW6" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="AX6" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="AY6" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="AZ6" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA6" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="BB6" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="BC6" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="BD6" s="48" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="7" spans="2:57" ht="15.75" customHeight="1">
       <c r="B7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="G7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="I7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="J7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="K7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="L7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="M7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="N7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="O7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="P7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="Q7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="R7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="S7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="T7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="U7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="2:57" ht="15.75" hidden="1" customHeight="1"/>
@@ -38026,7 +38027,7 @@
     <row r="12" spans="2:57" ht="15.75" hidden="1" customHeight="1"/>
     <row r="13" spans="2:57" ht="15.75" customHeight="1">
       <c r="B13" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D13" s="131">
         <v>4</v>
@@ -38243,7 +38244,7 @@
     </row>
     <row r="14" spans="2:57" ht="15.75" customHeight="1">
       <c r="B14" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D14" s="132">
         <f t="shared" ref="D14:AC14" si="2">D13*D3</f>
@@ -38460,7 +38461,7 @@
     </row>
     <row r="15" spans="2:57" ht="15.75" customHeight="1">
       <c r="B15" s="48" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D15" s="132"/>
       <c r="E15" s="132"/>
@@ -38519,174 +38520,174 @@
     </row>
     <row r="16" spans="2:57" ht="150" customHeight="1">
       <c r="B16" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="114" t="s">
+        <v>384</v>
+      </c>
+      <c r="E16" s="115" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" s="115" t="s">
+        <v>386</v>
+      </c>
+      <c r="G16" s="115" t="s">
+        <v>387</v>
+      </c>
+      <c r="H16" s="115" t="s">
+        <v>388</v>
+      </c>
+      <c r="I16" s="115" t="s">
+        <v>389</v>
+      </c>
+      <c r="J16" s="115" t="s">
+        <v>390</v>
+      </c>
+      <c r="K16" s="115" t="s">
+        <v>391</v>
+      </c>
+      <c r="L16" s="134" t="s">
+        <v>392</v>
+      </c>
+      <c r="M16" s="134" t="s">
+        <v>393</v>
+      </c>
+      <c r="N16" s="134" t="s">
+        <v>394</v>
+      </c>
+      <c r="O16" s="134" t="s">
         <v>395</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="P16" s="134" t="s">
         <v>396</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="Q16" s="134" t="s">
         <v>397</v>
       </c>
-      <c r="G16" s="115" t="s">
+      <c r="R16" s="134" t="s">
         <v>398</v>
       </c>
-      <c r="H16" s="115" t="s">
+      <c r="S16" s="134" t="s">
         <v>399</v>
       </c>
-      <c r="I16" s="115" t="s">
+      <c r="T16" s="134" t="s">
         <v>400</v>
       </c>
-      <c r="J16" s="115" t="s">
+      <c r="U16" s="134" t="s">
         <v>401</v>
       </c>
-      <c r="K16" s="115" t="s">
+      <c r="V16" s="134" t="s">
         <v>402</v>
       </c>
-      <c r="L16" s="134" t="s">
+      <c r="W16" s="135" t="s">
         <v>403</v>
       </c>
-      <c r="M16" s="134" t="s">
+      <c r="X16" s="135" t="s">
         <v>404</v>
       </c>
-      <c r="N16" s="134" t="s">
+      <c r="Y16" s="135" t="s">
         <v>405</v>
       </c>
-      <c r="O16" s="134" t="s">
+      <c r="Z16" s="135" t="s">
         <v>406</v>
       </c>
-      <c r="P16" s="134" t="s">
+      <c r="AA16" s="135" t="s">
         <v>407</v>
       </c>
-      <c r="Q16" s="134" t="s">
+      <c r="AB16" s="135" t="s">
         <v>408</v>
       </c>
-      <c r="R16" s="134" t="s">
+      <c r="AC16" s="135" t="s">
         <v>409</v>
       </c>
-      <c r="S16" s="134" t="s">
+      <c r="AD16" s="136" t="s">
         <v>410</v>
       </c>
-      <c r="T16" s="134" t="s">
+      <c r="AE16" s="136" t="s">
         <v>411</v>
       </c>
-      <c r="U16" s="134" t="s">
+      <c r="AF16" s="136" t="s">
         <v>412</v>
       </c>
-      <c r="V16" s="134" t="s">
+      <c r="AG16" s="136" t="s">
         <v>413</v>
       </c>
-      <c r="W16" s="135" t="s">
+      <c r="AH16" s="136" t="s">
         <v>414</v>
       </c>
-      <c r="X16" s="135" t="s">
+      <c r="AI16" s="137" t="s">
         <v>415</v>
       </c>
-      <c r="Y16" s="135" t="s">
+      <c r="AJ16" s="136" t="s">
         <v>416</v>
       </c>
-      <c r="Z16" s="135" t="s">
+      <c r="AK16" s="136" t="s">
         <v>417</v>
       </c>
-      <c r="AA16" s="135" t="s">
+      <c r="AL16" s="136" t="s">
         <v>418</v>
       </c>
-      <c r="AB16" s="135" t="s">
+      <c r="AM16" s="136" t="s">
         <v>419</v>
       </c>
-      <c r="AC16" s="135" t="s">
+      <c r="AN16" s="137" t="s">
         <v>420</v>
       </c>
-      <c r="AD16" s="136" t="s">
+      <c r="AO16" s="136" t="s">
         <v>421</v>
       </c>
-      <c r="AE16" s="136" t="s">
+      <c r="AP16" s="136" t="s">
         <v>422</v>
       </c>
-      <c r="AF16" s="136" t="s">
+      <c r="AQ16" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="AG16" s="136" t="s">
+      <c r="AR16" s="136" t="s">
         <v>424</v>
       </c>
-      <c r="AH16" s="136" t="s">
+      <c r="AS16" s="136" t="s">
         <v>425</v>
       </c>
-      <c r="AI16" s="137" t="s">
+      <c r="AT16" s="137" t="s">
         <v>426</v>
       </c>
-      <c r="AJ16" s="136" t="s">
+      <c r="AU16" s="137" t="s">
         <v>427</v>
       </c>
-      <c r="AK16" s="136" t="s">
+      <c r="AV16" s="137" t="s">
         <v>428</v>
       </c>
-      <c r="AL16" s="136" t="s">
+      <c r="AW16" s="137" t="s">
         <v>429</v>
       </c>
-      <c r="AM16" s="136" t="s">
+      <c r="AX16" s="137" t="s">
         <v>430</v>
       </c>
-      <c r="AN16" s="137" t="s">
+      <c r="AY16" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="AO16" s="136" t="s">
+      <c r="AZ16" s="136" t="s">
         <v>432</v>
       </c>
-      <c r="AP16" s="136" t="s">
+      <c r="BA16" s="136" t="s">
         <v>433</v>
       </c>
-      <c r="AQ16" s="136" t="s">
+      <c r="BB16" s="136" t="s">
         <v>434</v>
       </c>
-      <c r="AR16" s="136" t="s">
+      <c r="BC16" s="137" t="s">
         <v>435</v>
       </c>
-      <c r="AS16" s="136" t="s">
+      <c r="BD16" s="137" t="s">
         <v>436</v>
-      </c>
-      <c r="AT16" s="137" t="s">
-        <v>437</v>
-      </c>
-      <c r="AU16" s="137" t="s">
-        <v>438</v>
-      </c>
-      <c r="AV16" s="137" t="s">
-        <v>439</v>
-      </c>
-      <c r="AW16" s="137" t="s">
-        <v>440</v>
-      </c>
-      <c r="AX16" s="137" t="s">
-        <v>441</v>
-      </c>
-      <c r="AY16" s="136" t="s">
-        <v>442</v>
-      </c>
-      <c r="AZ16" s="136" t="s">
-        <v>443</v>
-      </c>
-      <c r="BA16" s="136" t="s">
-        <v>444</v>
-      </c>
-      <c r="BB16" s="136" t="s">
-        <v>445</v>
-      </c>
-      <c r="BC16" s="137" t="s">
-        <v>446</v>
-      </c>
-      <c r="BD16" s="137" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="17" spans="2:56" ht="15.75" customHeight="1">
       <c r="B17" s="138" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -38726,7 +38727,7 @@
     </row>
     <row r="19" spans="2:56" ht="15.75" customHeight="1">
       <c r="B19" s="139" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -38784,7 +38785,7 @@
     </row>
     <row r="21" spans="2:56" ht="15.75" customHeight="1">
       <c r="B21" s="139" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -38837,7 +38838,7 @@
     </row>
     <row r="22" spans="2:56" ht="15.75" customHeight="1">
       <c r="B22" s="139" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -38875,7 +38876,7 @@
     </row>
     <row r="23" spans="2:56" ht="15.75" customHeight="1">
       <c r="B23" s="139" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -38910,7 +38911,7 @@
     </row>
     <row r="24" spans="2:56" ht="15.75" customHeight="1">
       <c r="B24" s="139" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -38977,7 +38978,7 @@
     </row>
     <row r="26" spans="2:56" ht="15.75" customHeight="1">
       <c r="B26" s="139" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -39009,7 +39010,7 @@
     </row>
     <row r="27" spans="2:56" ht="15.75" customHeight="1">
       <c r="B27" s="139" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -39035,7 +39036,7 @@
     </row>
     <row r="28" spans="2:56" ht="15.75" customHeight="1">
       <c r="B28" s="139" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -39058,7 +39059,7 @@
     </row>
     <row r="29" spans="2:56" ht="15.75" customHeight="1">
       <c r="B29" s="139" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -39095,7 +39096,7 @@
     </row>
     <row r="31" spans="2:56" ht="15.75" customHeight="1">
       <c r="B31" s="139" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -39112,7 +39113,7 @@
     </row>
     <row r="32" spans="2:56" ht="15.75" customHeight="1">
       <c r="B32" s="139" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -39135,7 +39136,7 @@
     </row>
     <row r="33" spans="2:50" ht="15.75" customHeight="1">
       <c r="B33" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -39172,7 +39173,7 @@
     <row r="35" spans="2:50" ht="15.75" customHeight="1"/>
     <row r="36" spans="2:50" ht="15.75" customHeight="1">
       <c r="B36" s="139" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C36">
         <f>SUM(C17:C35)</f>
@@ -39182,33 +39183,33 @@
     <row r="37" spans="2:50" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:50" ht="15.75" customHeight="1">
       <c r="B38" s="140" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D38" s="48" t="s">
         <v>55</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>60</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="I38" s="48" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="2:50" ht="15.75" customHeight="1">
       <c r="B39" s="130" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C39" s="48">
         <v>4.8899999999999997</v>
@@ -39224,12 +39225,12 @@
         <v>93</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="2:50" ht="15.75" customHeight="1">
       <c r="B40" s="48" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C40" s="48">
         <v>4.8899999999999997</v>
@@ -39245,12 +39246,12 @@
         <v>93</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="2:50" ht="15.75" customHeight="1">
       <c r="B41" s="48" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C41" s="48">
         <v>55</v>
@@ -39263,15 +39264,15 @@
         <v>55</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="2:50" ht="15.75" customHeight="1">
       <c r="B42" s="48" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C42" s="48">
         <v>4.8899999999999997</v>
@@ -39287,12 +39288,12 @@
         <v>93</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="2:50" ht="15.75" customHeight="1">
       <c r="B43" s="48" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C43" s="48">
         <v>1.6</v>
@@ -39305,21 +39306,21 @@
         <v>1.6</v>
       </c>
       <c r="F43" s="69" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="I43" s="69" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="J43" s="48" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="2:50" ht="15.75" customHeight="1">
       <c r="B44" s="48" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C44" s="48">
         <v>1.6</v>
@@ -39332,15 +39333,15 @@
         <v>1.6</v>
       </c>
       <c r="F44" s="69" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="2:50" ht="15.75" customHeight="1">
       <c r="B45" s="140" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E45">
         <f t="shared" si="4"/>
@@ -39349,7 +39350,7 @@
     </row>
     <row r="46" spans="2:50" ht="15.75" customHeight="1">
       <c r="B46" s="48" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="C46" s="48">
         <v>39</v>
@@ -39362,15 +39363,15 @@
         <v>39</v>
       </c>
       <c r="F46" s="69" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="2:50" ht="15.75" customHeight="1">
       <c r="B47" s="48" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C47" s="48">
         <v>10</v>
@@ -39383,15 +39384,15 @@
         <v>10</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="2:50" ht="15.75" customHeight="1">
       <c r="B48" s="48" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="C48" s="48">
         <v>11</v>
@@ -39404,15 +39405,15 @@
         <v>11</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1">
       <c r="B49" s="48" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C49" s="48">
         <v>15</v>
@@ -39425,10 +39426,10 @@
         <v>15</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
@@ -39439,7 +39440,7 @@
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="141" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="E51">
         <f t="shared" si="4"/>
@@ -39448,7 +39449,7 @@
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1">
       <c r="B52" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C52" s="48">
         <v>11</v>
@@ -39461,15 +39462,15 @@
         <v>11</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1">
       <c r="B53" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C53" s="48">
         <v>5.99</v>
@@ -39482,15 +39483,15 @@
         <v>5.99</v>
       </c>
       <c r="F53" s="69" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1">
       <c r="B54" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C54" s="48">
         <v>2</v>
@@ -39503,15 +39504,15 @@
         <v>2</v>
       </c>
       <c r="F54" s="69" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="G54" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1">
       <c r="B55" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C55" s="48">
         <v>15</v>
@@ -39527,12 +39528,12 @@
         <v>131</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1">
       <c r="B56" s="48" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C56" s="48">
         <v>12</v>
@@ -39548,12 +39549,12 @@
         <v>128</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -39566,12 +39567,12 @@
         <v>5</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
       <c r="B58" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -39584,12 +39585,12 @@
         <v>5</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1">
       <c r="B59" s="48" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C59" s="48">
         <v>10</v>
@@ -39602,12 +39603,12 @@
         <v>10</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="16">
       <c r="B60" s="48" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C60" s="48">
         <v>1.8</v>
@@ -39620,21 +39621,21 @@
         <v>1.8</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="G60" s="48" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="H60" s="48" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="I60" s="48" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1">
       <c r="B61" s="48" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C61" s="48">
         <v>0.36</v>
@@ -39647,21 +39648,21 @@
         <v>0.36</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="G61" s="48" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="H61" s="48" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="I61" s="48" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1">
       <c r="B62" s="48" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D62" s="48">
         <v>1</v>
@@ -39673,7 +39674,7 @@
     </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1">
       <c r="B63" s="48" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C63" s="48">
         <v>20</v>
@@ -39686,10 +39687,10 @@
         <v>20</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.75" customHeight="1">
@@ -39700,7 +39701,7 @@
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1">
       <c r="B65" s="140" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="E65">
         <f t="shared" si="4"/>
@@ -39709,7 +39710,7 @@
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1">
       <c r="B66" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C66" s="48">
         <v>45</v>
@@ -39722,15 +39723,15 @@
         <v>45</v>
       </c>
       <c r="F66" s="69" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G66" s="48" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1">
       <c r="B67" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C67" s="48">
         <v>9</v>
@@ -39743,15 +39744,15 @@
         <v>9</v>
       </c>
       <c r="F67" s="69" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G67" s="48" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1">
       <c r="B68" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C68">
         <v>70</v>
@@ -39764,15 +39765,15 @@
         <v>70</v>
       </c>
       <c r="F68" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G68" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1">
       <c r="B69" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C69" s="48">
         <v>15</v>
@@ -39785,15 +39786,15 @@
         <v>15</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="G69" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1">
       <c r="B70" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C70" s="48">
         <v>12</v>
@@ -39806,15 +39807,15 @@
         <v>12</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="G70" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1">
       <c r="B71" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C71" s="48">
         <v>25</v>
@@ -39827,15 +39828,15 @@
         <v>25</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="G71" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1">
       <c r="B72" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C72" s="48">
         <v>3</v>
@@ -39848,30 +39849,30 @@
         <v>3</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G72" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1">
       <c r="B73" s="48" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="E73">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F73" s="48" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G73" s="48" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1">
       <c r="B74" s="48" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="C74" s="48">
         <v>8.99</v>
@@ -39884,17 +39885,17 @@
         <v>8.99</v>
       </c>
       <c r="F74" s="69" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="G74" s="48" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="76" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="77" spans="2:7" ht="15.75" customHeight="1">
       <c r="B77" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E77">
         <f>SUM(E39:E72)</f>
@@ -39904,14 +39905,14 @@
     <row r="78" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="79" spans="2:7" ht="15.75" customHeight="1">
       <c r="B79" s="142" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C79" s="143">
         <f>E77+BE14</f>
         <v>735.58200000000011</v>
       </c>
       <c r="D79" s="142" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1"/>
@@ -39931,7 +39932,7 @@
     <row r="94" spans="2:55" ht="15.75" customHeight="1"/>
     <row r="95" spans="2:55" ht="15.75" customHeight="1">
       <c r="B95" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="2:55" ht="15.75" customHeight="1">
@@ -44427,28 +44428,28 @@
     <row r="1" spans="1:26">
       <c r="A1" s="144"/>
       <c r="B1" s="145" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C1" s="144" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D1" s="146" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="146" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="F1" s="146" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G1" s="146" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="H1" s="146" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="I1" s="146" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="J1" s="147"/>
       <c r="K1" s="147"/>
@@ -44470,23 +44471,23 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="150" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B2" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="147"/>
       <c r="E2" s="147"/>
       <c r="F2" s="147" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G2" s="152" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="H2" s="147"/>
       <c r="I2" s="153" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="J2" s="147"/>
       <c r="K2" s="147"/>
@@ -44508,10 +44509,10 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="154" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B3" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C3" s="155">
         <v>65.81</v>
@@ -44523,13 +44524,13 @@
         <v>101</v>
       </c>
       <c r="F3" s="147" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G3" s="157" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="H3" s="158" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="I3" s="148"/>
       <c r="J3" s="147"/>
@@ -44552,10 +44553,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="150" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B4" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C4" s="155">
         <v>34.840000000000003</v>
@@ -44568,13 +44569,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="F4" s="147" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G4" s="152" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="H4" s="158" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="I4" s="148"/>
       <c r="J4" s="147"/>
@@ -44597,13 +44598,13 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="150" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B5" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C5" s="160" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D5" s="156">
         <v>2</v>
@@ -44613,13 +44614,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="F5" s="147" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G5" s="152" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H5" s="158" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="I5" s="148"/>
       <c r="J5" s="147"/>
@@ -44642,10 +44643,10 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="161" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B6" s="162" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C6" s="147"/>
       <c r="D6" s="156">
@@ -44656,14 +44657,14 @@
         <v>#VALUE!</v>
       </c>
       <c r="F6" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G6" s="163" t="s">
         <v>174</v>
       </c>
       <c r="H6" s="148"/>
       <c r="I6" s="164" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="J6" s="147"/>
       <c r="K6" s="147"/>
@@ -44685,25 +44686,25 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="161" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B7" s="162" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C7" s="147"/>
       <c r="D7" s="147">
         <v>1</v>
       </c>
       <c r="E7" s="152" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F7" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G7" s="147"/>
       <c r="H7" s="147"/>
       <c r="I7" s="147" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="J7" s="147"/>
       <c r="K7" s="147"/>
@@ -44725,10 +44726,10 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="161" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B8" s="162" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C8" s="147"/>
       <c r="D8" s="147">
@@ -44738,7 +44739,7 @@
         <v>128</v>
       </c>
       <c r="F8" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G8" s="147"/>
       <c r="H8" s="147"/>
@@ -44763,10 +44764,10 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="161" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B9" s="162" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C9" s="147"/>
       <c r="D9" s="156">
@@ -44777,7 +44778,7 @@
         <v>https://www.amazon.de/Edelstahl-Sechskopf-Knopf-Schrauben-Unterlegscheiben-Sortiment-Aufbewahrung/dp/B073SS7D8J/ref=sr_1_fkmr0_1?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=zylinderkopfschrauben+set+galvanisiert&amp;qid=1565007371&amp;s=diy&amp;sr=1-1-fkmr0</v>
       </c>
       <c r="F9" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G9" s="147"/>
       <c r="H9" s="147"/>
@@ -44802,7 +44803,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="165" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B10" s="166"/>
       <c r="C10" s="147"/>
@@ -44810,10 +44811,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="152" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F10" s="147" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="G10" s="147"/>
       <c r="H10" s="167"/>
@@ -44838,10 +44839,10 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="150" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B11" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C11" s="160">
         <v>19.95</v>
@@ -44850,15 +44851,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="152" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="F11" s="169" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="G11" s="147"/>
       <c r="H11" s="147"/>
       <c r="I11" s="169" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="J11" s="147"/>
       <c r="K11" s="147"/>
@@ -44880,10 +44881,10 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="150" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B12" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C12" s="160">
         <v>19.95</v>
@@ -44892,15 +44893,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="F12" s="169" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="G12" s="147"/>
       <c r="H12" s="147"/>
       <c r="I12" s="169" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="J12" s="147"/>
       <c r="K12" s="147"/>
@@ -44922,10 +44923,10 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="150" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B13" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C13" s="156">
         <v>37.9</v>
@@ -44934,10 +44935,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="152" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F13" s="169" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="G13" s="147"/>
       <c r="H13" s="147"/>
@@ -44962,10 +44963,10 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="150" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B14" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C14" s="156">
         <v>29.9</v>
@@ -44978,14 +44979,14 @@
         <v>https://www.amazon.de/Raspberry-Pi-v2-1-1080P-Kamera-Modul/dp/B01ER2SMHY/ref=sr_1_4?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1LUZK9XHFS5CX&amp;keywords=raspberry+pi+camera+v2.1&amp;qid=1565008837&amp;s=gateway&amp;sprefix=raspberry+pi+camera+%2Caps%2C163&amp;sr=8-4</v>
       </c>
       <c r="F14" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G14" s="152" t="str">
         <f>HYPERLINK("https://www.reichelt.de/raspberry-pi-kamera-8mp-ir-v2-imx219pq-rasp-can-2-p170857.html?&amp;trstct=pos_2","https://www.reichelt.de/raspberry-pi-kamera-8mp-ir-v2-imx219pq-rasp-can-2-p170857.html?&amp;trstct=pos_2")</f>
         <v>https://www.reichelt.de/raspberry-pi-kamera-8mp-ir-v2-imx219pq-rasp-can-2-p170857.html?&amp;trstct=pos_2</v>
       </c>
       <c r="H14" s="169" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="I14" s="147"/>
       <c r="J14" s="147"/>
@@ -45008,10 +45009,10 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="154" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B15" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C15" s="147"/>
       <c r="D15" s="156">
@@ -45022,17 +45023,17 @@
         <v>https://www.amazon.de/gp/product/B075JN61S7/ref=ox_sc_act_title_2?smid=A1X7QLRQH87QA3&amp;psc=1</v>
       </c>
       <c r="F15" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G15" s="152" t="str">
         <f>HYPERLINK("https://www.az-delivery.de/collections/raspberry-pi-kamera-zubehor/products/100cmflexkabel?ls=de","https://www.az-delivery.de/collections/raspberry-pi-kamera-zubehor/products/100cmflexkabel?ls=de")</f>
         <v>https://www.az-delivery.de/collections/raspberry-pi-kamera-zubehor/products/100cmflexkabel?ls=de</v>
       </c>
       <c r="H15" s="147" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="I15" s="169" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="J15" s="147"/>
       <c r="K15" s="147"/>
@@ -45054,10 +45055,10 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="150" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B16" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C16" s="156">
         <v>64.5</v>
@@ -45070,13 +45071,13 @@
         <v>https://www.amazon.de/Raspberry-Pi-7-Inch-Screen-Display/dp/B014WKCFR4/ref=sr_1_fkmrnull_3?__mk_de_DE=ÅMÅŽÕÑ&amp;keywords=raspi+7"+tft&amp;qid=1555581857&amp;s=gateway&amp;sr=8-3-fkmrnull</v>
       </c>
       <c r="F16" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G16" s="152" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="H16" s="147" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="I16" s="147"/>
       <c r="J16" s="147"/>
@@ -45099,10 +45100,10 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="150" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B17" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C17" s="156">
         <v>17.8</v>
@@ -45111,16 +45112,16 @@
         <v>1</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="F17" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H17" s="169" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="I17" s="147"/>
       <c r="J17" s="147"/>
@@ -45143,10 +45144,10 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="150" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B18" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C18" s="156">
         <v>8.5500000000000007</v>
@@ -45155,10 +45156,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="152" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F18" s="169" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="G18" s="147"/>
       <c r="H18" s="147"/>
@@ -45183,10 +45184,10 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="161" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B19" s="162" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C19" s="147"/>
       <c r="D19" s="156">
@@ -45197,10 +45198,10 @@
         <v>https://www.amazon.de/BisLinks%C2%AE-Facing-Kamera-Ersatz-Repair/dp/B01M9K9RVN/ref=sr_1_10?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=lg+g3+camera&amp;qid=1565005739&amp;s=gateway&amp;sr=8-10</v>
       </c>
       <c r="F19" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G19" s="147" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="H19" s="147"/>
       <c r="I19" s="147"/>
@@ -45224,10 +45225,10 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="150" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B20" s="151" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C20" s="156"/>
       <c r="D20" s="156">
@@ -45238,17 +45239,17 @@
         <v>https://www.amazon.de/AZDelivery-NodeMCU-Development-Nachfolgermodell-ESP8266/dp/B074RGW2VQ/ref=sr_1_3?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=esp32&amp;qid=1565008313&amp;s=gateway&amp;sr=8-3</v>
       </c>
       <c r="F20" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G20" s="152" t="str">
         <f>HYPERLINK("https://www.az-delivery.de/products/esp32-developmentboard?ls=de","https://www.az-delivery.de/products/esp32-developmentboard?ls=de")</f>
         <v>https://www.az-delivery.de/products/esp32-developmentboard?ls=de</v>
       </c>
       <c r="H20" s="147" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="I20" s="147" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="J20" s="147"/>
       <c r="K20" s="147"/>
@@ -45270,10 +45271,10 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="171" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B21" s="172" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="156">
@@ -45283,12 +45284,12 @@
         <v>140</v>
       </c>
       <c r="F21" s="169" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="G21" s="147"/>
       <c r="H21" s="147"/>
       <c r="I21" s="171" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="J21" s="174"/>
       <c r="K21" s="147"/>
@@ -45310,10 +45311,10 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="150" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B22" s="151" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C22" s="156"/>
       <c r="D22" s="156">
@@ -45324,17 +45325,17 @@
         <v>https://www.amazon.de/AZDelivery-Matrix-CJMCU-8-Arduino-Raspberry/dp/B078HYP681/ref=sr_1_2?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=neopixel+matrix&amp;qid=1565008576&amp;s=gateway&amp;sr=8-2</v>
       </c>
       <c r="F22" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G22" s="152" t="str">
         <f>HYPERLINK("https://www.az-delivery.de/products/u-64-led-panel?ls=de","https://www.az-delivery.de/products/u-64-led-panel?ls=de")</f>
         <v>https://www.az-delivery.de/products/u-64-led-panel?ls=de</v>
       </c>
       <c r="H22" s="147" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="I22" s="153" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="J22" s="175"/>
       <c r="K22" s="147"/>
@@ -45356,10 +45357,10 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="147" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B23" s="176" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C23" s="156"/>
       <c r="D23" s="156">
@@ -45370,17 +45371,17 @@
         <v>https://www.ebay.de/itm/Hi-Power-LED-1W-3W-UV-STAR-Ultraviolet-/131326525056?var=</v>
       </c>
       <c r="F23" s="169" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G23" s="152" t="str">
         <f>HYPERLINK("https://avonec.de/3w-high-power-led/3w-high-power-led-10000k-20000k-kaltweiss-46-47-48.html","https://avonec.de/3w-high-power-led/3w-high-power-led-10000k-20000k-kaltweiss-46-47-48.html")</f>
         <v>https://avonec.de/3w-high-power-led/3w-high-power-led-10000k-20000k-kaltweiss-46-47-48.html</v>
       </c>
       <c r="H23" s="147" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="I23" s="147" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="J23" s="177"/>
       <c r="K23" s="147"/>
@@ -45402,10 +45403,10 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="154" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C24" s="156"/>
       <c r="D24" s="156">
@@ -45416,17 +45417,17 @@
         <v>https://www.ebay.de/itm/BD809-Transistor-npn-80V-10A-90W-TO220/360661360188?hash=item53f9179e3c:g:ssEAAOSw-fNaqt1l</v>
       </c>
       <c r="F24" s="169" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G24" s="152" t="str">
         <f>HYPERLINK("https://www.reichelt.de/index.html?ACTION=446&amp;LA=446&amp;q=bd809%20transistor%20npn%2080v%2010a%2090w%20to220","https://www.reichelt.de/index.html?ACTION=446&amp;LA=446&amp;q=bd809%20transistor%20npn%2080v%2010a%2090w%20to220")</f>
         <v>https://www.reichelt.de/index.html?ACTION=446&amp;LA=446&amp;q=bd809%20transistor%20npn%2080v%2010a%2090w%20to220</v>
       </c>
       <c r="H24" s="169" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="I24" s="171" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="J24" s="147"/>
       <c r="K24" s="147"/>
@@ -45448,10 +45449,10 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="154" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B25" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C25" s="156"/>
       <c r="D25" s="156">
@@ -45462,16 +45463,16 @@
         <v>https://www.amazon.de/Elegoo-Stepper-Schrittmotor-28BYJ-48-Treiberplatine/dp/B01MEGIHLF/ref=sr_1_1_sspa?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=stepper+arduino&amp;qid=1565008205&amp;s=gateway&amp;sr=8-1-spons&amp;psc=1</v>
       </c>
       <c r="F25" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G25" s="152" t="s">
         <v>207</v>
       </c>
       <c r="H25" s="169" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="I25" s="171" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="J25" s="147"/>
       <c r="K25" s="147"/>
@@ -45493,10 +45494,10 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="150" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B26" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C26" s="147"/>
       <c r="D26" s="156">
@@ -45507,12 +45508,12 @@
         <v>https://eshop.wuerth.de/Zylinderschraube-mit-Innensechskant-SHR-ZYL-ISO4762-88-IS25-A2K-M3X8/00843%20%208.sku/de/DE/EUR/</v>
       </c>
       <c r="F26" s="147" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G26" s="147"/>
       <c r="H26" s="147"/>
       <c r="I26" s="178" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="J26" s="147"/>
       <c r="K26" s="178"/>
@@ -45534,10 +45535,10 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="150" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B27" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C27" s="147"/>
       <c r="D27" s="156">
@@ -45548,12 +45549,12 @@
         <v>https://eshop.wuerth.de/Zylinderschraube-mit-Innensechskant-SHR-ZYL-ISO4762-88-IS25-A2K-M3X12/00843%20%2012.sku/de/DE/EUR/</v>
       </c>
       <c r="F27" s="147" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G27" s="147"/>
       <c r="H27" s="147"/>
       <c r="I27" s="178" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="J27" s="147"/>
       <c r="K27" s="147"/>
@@ -45575,10 +45576,10 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="161" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B28" s="162" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C28" s="147"/>
       <c r="D28" s="156">
@@ -45589,12 +45590,12 @@
         <v>https://eshop.wuerth.de/Zylinderschraube-mit-Innensechskant-SHR-ZYL-ISO4762-88-IS25-A2K-M3X18/00843%20%2018.sku/de/DE/EUR/</v>
       </c>
       <c r="F28" s="147" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G28" s="147"/>
       <c r="H28" s="147"/>
       <c r="I28" s="179" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J28" s="178"/>
       <c r="K28" s="147"/>
@@ -45616,10 +45617,10 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="150" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B29" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C29" s="180">
         <v>0.36</v>
@@ -45632,16 +45633,16 @@
         <v>https://www.ebay.de/itm/216-Neodym-Kugelmagnete-D5mm-D7mm-D10mm-GOLD-SILVER-BLACK-NICKEL-NdFeB/372719170845?hash=item56c7cb351d:m:mj8zDp5AN1PxzUDiyJu1Rsg</v>
       </c>
       <c r="F29" s="147" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G29" s="152" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="H29" s="147" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="I29" s="179" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="J29" s="181"/>
       <c r="K29" s="178"/>
@@ -45663,10 +45664,10 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="161" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B30" s="162" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C30" s="147"/>
       <c r="D30" s="156">
@@ -45677,7 +45678,7 @@
         <v>https://eshop.wuerth.de/Gewindestift-Innensechskant-und-Kegelstumpf-STI-STMPF-ISO4026-45H-IS15-A2K-M3X25/025503%2025.sku/WuerthGroup-Wuerth.cgid/de/DE/EUR/?VisibleSearchTerm=STI-STMPF-ISO4026-45H-IS1%2C5-%28A2K%29-M3X25&amp;CampaignName=SR001</v>
       </c>
       <c r="F30" s="147" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G30" s="147"/>
       <c r="H30" s="147"/>
@@ -45702,20 +45703,20 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="161" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B31" s="162" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C31" s="147"/>
       <c r="D31" s="147">
         <v>1</v>
       </c>
       <c r="E31" s="152" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F31" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G31" s="147"/>
       <c r="H31" s="147"/>
@@ -45740,26 +45741,26 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="150" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B32" s="151" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C32" s="147"/>
       <c r="D32" s="147">
         <v>1</v>
       </c>
       <c r="E32" s="152" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="F32" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G32" s="182" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="H32" s="147" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="I32" s="147"/>
       <c r="J32" s="147"/>
@@ -45782,22 +45783,22 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="169" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B33" s="183" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C33" s="169"/>
       <c r="D33" s="147"/>
       <c r="E33" s="147"/>
       <c r="F33" s="169" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G33" s="147"/>
       <c r="H33" s="147"/>
       <c r="I33" s="147"/>
       <c r="J33" s="184" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="K33" s="147"/>
       <c r="L33" s="147"/>
@@ -45818,30 +45819,30 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="147" t="s">
+        <v>514</v>
+      </c>
+      <c r="B34" s="176" t="s">
         <v>525</v>
-      </c>
-      <c r="B34" s="176" t="s">
-        <v>536</v>
       </c>
       <c r="C34" s="147"/>
       <c r="D34" s="156">
         <v>3</v>
       </c>
       <c r="E34" s="152" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="F34" s="147" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G34" s="147"/>
       <c r="H34" s="147"/>
       <c r="I34" s="147" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="J34" s="181"/>
       <c r="K34" s="147"/>
       <c r="L34" s="185" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="M34" s="147"/>
       <c r="N34" s="149"/>
@@ -45860,24 +45861,24 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="179" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B35" s="172" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C35" s="147"/>
       <c r="D35" s="147"/>
       <c r="E35" s="186" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F35" s="147" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G35" s="182" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="H35" s="147" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="I35" s="147"/>
       <c r="J35" s="147"/>
@@ -45900,10 +45901,10 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="154" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B36" s="187" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C36" s="147"/>
       <c r="D36" s="156">
@@ -45913,12 +45914,12 @@
         <v>93</v>
       </c>
       <c r="F36" s="147" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="G36" s="147"/>
       <c r="H36" s="147"/>
       <c r="I36" s="179" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="J36" s="181"/>
       <c r="K36" s="147"/>
@@ -45940,10 +45941,10 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="161" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B37" s="162" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C37" s="147"/>
       <c r="D37" s="156">
@@ -45974,10 +45975,10 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="161" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="B38" s="162" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C38" s="147"/>
       <c r="D38" s="156">
@@ -46008,7 +46009,7 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="147" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="B39" s="188"/>
       <c r="C39" s="147"/>
@@ -46040,7 +46041,7 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="190" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B40" s="156"/>
       <c r="C40" s="147"/>
